--- a/ChetuGlobalATS-INTL_ResourceUtilization.xlsx
+++ b/ChetuGlobalATS-INTL_ResourceUtilization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aquibj\Desktop\Important-Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aquibj\Desktop\Important-Notes\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1492">
   <si>
     <t>Task Name</t>
   </si>
@@ -4751,12 +4751,185 @@
   <si>
     <t>updated 1 ticket</t>
   </si>
+  <si>
+    <t>Offer letter not Created provided by sonalim2@chetu.com</t>
+  </si>
+  <si>
+    <t>Avinash Kumar (212534) by tarung@chetu.com</t>
+  </si>
+  <si>
+    <t>the unit testing of AutoSync functionality of Outlook AddIn</t>
+  </si>
+  <si>
+    <t>configured Outlook Plugin and Addin on QA environment for AutoSync functionality</t>
+  </si>
+  <si>
+    <t>Hiring Portal result Required (anupc@chetu.com)</t>
+  </si>
+  <si>
+    <t>Worked on to configure Outlook AddIn setup on Uddeshya’s machine. Also provided necessary documents containing functional information of AddIn.</t>
+  </si>
+  <si>
+    <t>AutoSync functionality of Outlook AddIn.</t>
+  </si>
+  <si>
+    <t>Offer Accepted but not showing in Onboarding(anujg3@chetu.com)</t>
+  </si>
+  <si>
+    <t>ATS Issue(anupc@chetu.com)</t>
+  </si>
+  <si>
+    <t>Worked on stored procedure [Usp_LogActivityTask_OutlookPlugin] to insert emails details and update record through autosync</t>
+  </si>
+  <si>
+    <t>Worked on AutoSync functionality of Outlook AddIn.</t>
+  </si>
+  <si>
+    <t>Worked on AutoSync functionality of Outlook AddIn</t>
+  </si>
+  <si>
+    <r>
+      <t>Worked on to resolve the issue as provided by Jobs Team members – mayankr@chetu.com,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> uddeshyas@chetu.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Worked on to install and configure Outlook PlugIn Service and Outlook AddIn (WCF service) on Uddeshya’s machine</t>
+  </si>
+  <si>
+    <t>Worked on to resolve the issue as provided by Jobs Team members – nikkitas@chetu.com</t>
+  </si>
+  <si>
+    <t>ATS Issue-mayankr@chetu.com</t>
+  </si>
+  <si>
+    <t>Resource Id - 70534-jyotid@chetu.com</t>
+  </si>
+  <si>
+    <t>Worked on Outlook Addin to filter data depending on last sync time</t>
+  </si>
+  <si>
+    <t>Worked on stored procedure Usp_GetCandidateTrackByEmail_OulookPlugin to get senders detail</t>
+  </si>
+  <si>
+    <t>worked on function CreateTaskAndUpdateStatusByType to save email records in database</t>
+  </si>
+  <si>
+    <t>Deployed new release of ATS(QA/Staging)</t>
+  </si>
+  <si>
+    <t>Required Server for WCF deployment-itsupport &lt;itsupport@chetu.com&gt;</t>
+  </si>
+  <si>
+    <t>ATS Issue : Need to fix on priority -anupc@chetu.com</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>deploy the second phase of Auto-FollowUp on QA environment.</t>
+  </si>
+  <si>
+    <t>Configured plugin to communicate with Outlook AddIn</t>
+  </si>
+  <si>
+    <t>prepared release mail for QA environment</t>
+  </si>
+  <si>
+    <t>modified stored procedure [Usp_OutlookSyncLog] to fetch last sync time from OutlooSyncLog table</t>
+  </si>
+  <si>
+    <t>configured function GetSenderEmailAddress in AddIn to fetch senders mail</t>
+  </si>
+  <si>
+    <t>ATS Issue : Candidate image not showing-anupc@chetu.com</t>
+  </si>
+  <si>
+    <t>Need to close - uddeshyas@chetu.com</t>
+  </si>
+  <si>
+    <t>worked on function GetChetuEmail() to get chetu email from outlook</t>
+  </si>
+  <si>
+    <t>Worked on to change OfferLetter mail from sonalim2@chetu.com to mayankr@chetu.com</t>
+  </si>
+  <si>
+    <t>created function DALGetFollowUpReportStatistics() in Auto FollowUp API to reflect total figures of activities</t>
+  </si>
+  <si>
+    <t>created stored procedure to send data to above API</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Worked on the Report section in AutoFollowUp to display reports of individual activities and thread along with their status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Worked on to modify the stored procedure Usp_GetFollowUpCurrentActivity to fetch last five minutes record if they are missed while sending the mails through sendgrid</t>
+  </si>
+  <si>
+    <t>ATS update by tapans@chetu.com</t>
+  </si>
+  <si>
+    <t>Hiring Portal Test | Android_T by junaidh@chetu.com</t>
+  </si>
+  <si>
+    <t>Deployed new release of ATS(QA/Staging)-v 6.5.0</t>
+  </si>
+  <si>
+    <t>Regarding modification in interviewer list in ATS application</t>
+  </si>
+  <si>
+    <t>by satybanr@chetu.com</t>
+  </si>
+  <si>
+    <t>Resolved issue of AutoSync as provided by QA</t>
+  </si>
+  <si>
+    <t>Implemented new module EMPLOYEE DETAILS</t>
+  </si>
+  <si>
+    <t>Deployed new release of ATS(production) v 6.5.0</t>
+  </si>
+  <si>
+    <t>Migration from Appdb01 to Appdb02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on autosync functionality </t>
+  </si>
+  <si>
+    <t>Worked on to analyse the AutoSync functionality to filter data properly.</t>
+  </si>
+  <si>
+    <t>Worked on to resolve the one of the two issues as provided by QA for new module Employee Details</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4907,16 +5080,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4950,6 +5136,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5108,7 +5306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5275,17 +5473,64 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9475,11 +9720,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F712"/>
+  <dimension ref="A1:F868"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A693" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C697" sqref="C697"/>
+      <pane ySplit="1" topLeftCell="A799" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B827" sqref="B827"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15227,1236 +15472,3138 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A536" s="72" t="s">
+    <row r="536" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A536" s="98" t="s">
         <v>1334</v>
       </c>
-      <c r="B536" s="73"/>
-      <c r="C536" s="73"/>
-      <c r="D536" s="74"/>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A537" s="3" t="s">
+      <c r="B536" s="98"/>
+      <c r="C536" s="98"/>
+      <c r="D536" s="98"/>
+    </row>
+    <row r="537" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A537" s="95" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B537" s="96"/>
+      <c r="C537" s="96"/>
+      <c r="D537" s="97"/>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="77" t="s">
         <v>1335</v>
       </c>
-      <c r="B537" s="12">
+      <c r="B538" s="72">
         <v>44564</v>
       </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B538" s="12">
+      <c r="C538" s="75"/>
+      <c r="D538" s="75"/>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" s="77"/>
+      <c r="B539" s="72">
         <v>44564</v>
       </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B539" s="12">
+      <c r="C539" s="75"/>
+      <c r="D539" s="75"/>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="77"/>
+      <c r="B540" s="72">
         <v>44564</v>
       </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A540" s="3" t="s">
+      <c r="C540" s="75"/>
+      <c r="D540" s="75"/>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="78" t="s">
         <v>1344</v>
       </c>
-      <c r="B540" s="12">
+      <c r="B541" s="70">
         <v>44565</v>
       </c>
-    </row>
-    <row r="541" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A541" s="3" t="s">
+      <c r="C541" s="38"/>
+      <c r="D541" s="38"/>
+    </row>
+    <row r="542" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A542" s="78" t="s">
         <v>1345</v>
       </c>
-      <c r="B541" s="12">
+      <c r="B542" s="70">
         <v>44565</v>
       </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A542" s="67"/>
-      <c r="B542" s="12">
+      <c r="C542" s="38"/>
+      <c r="D542" s="38"/>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="86"/>
+      <c r="B543" s="70">
         <v>44565</v>
       </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A543" s="66"/>
-      <c r="B543" s="12">
+      <c r="C543" s="38"/>
+      <c r="D543" s="38"/>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="87"/>
+      <c r="B544" s="72">
         <v>44566</v>
       </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B544" s="12">
+      <c r="C544" s="75"/>
+      <c r="D544" s="75"/>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" s="77"/>
+      <c r="B545" s="72">
         <v>44566</v>
       </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B545" s="12">
+      <c r="C545" s="75"/>
+      <c r="D545" s="75"/>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" s="77"/>
+      <c r="B546" s="72">
         <v>44566</v>
       </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546" s="3" t="s">
+      <c r="C546" s="75"/>
+      <c r="D546" s="75"/>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" s="78" t="s">
         <v>1346</v>
       </c>
-      <c r="B546" s="12">
+      <c r="B547" s="70">
         <v>44567</v>
       </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" s="3" t="s">
+      <c r="C547" s="38"/>
+      <c r="D547" s="38"/>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" s="78" t="s">
         <v>1343</v>
       </c>
-      <c r="B547" s="12">
+      <c r="B548" s="70">
         <v>44567</v>
       </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B548" s="12">
+      <c r="C548" s="38"/>
+      <c r="D548" s="38"/>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" s="78"/>
+      <c r="B549" s="70">
         <v>44567</v>
       </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B549" s="12">
+      <c r="C549" s="38"/>
+      <c r="D549" s="38"/>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" s="77"/>
+      <c r="B550" s="72">
         <v>44568</v>
       </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B550" s="12">
+      <c r="C550" s="75"/>
+      <c r="D550" s="75"/>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" s="77"/>
+      <c r="B551" s="72">
         <v>44568</v>
       </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B551" s="12">
+      <c r="C551" s="75"/>
+      <c r="D551" s="75"/>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="77"/>
+      <c r="B552" s="72">
         <v>44568</v>
       </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B552" s="12">
+      <c r="C552" s="75"/>
+      <c r="D552" s="75"/>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" s="78"/>
+      <c r="B553" s="70">
         <v>44569</v>
       </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B553" s="12">
+      <c r="C553" s="38"/>
+      <c r="D553" s="38"/>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="78"/>
+      <c r="B554" s="70">
         <v>44569</v>
       </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B554" s="12">
+      <c r="C554" s="38"/>
+      <c r="D554" s="38"/>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" s="78"/>
+      <c r="B555" s="70">
         <v>44569</v>
       </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" s="56" t="s">
+      <c r="C555" s="38"/>
+      <c r="D555" s="38"/>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="69" t="s">
         <v>1347</v>
       </c>
-      <c r="B555" s="12">
+      <c r="B556" s="72">
         <v>44571</v>
       </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B556" s="12">
+      <c r="C556" s="75"/>
+      <c r="D556" s="75"/>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="77"/>
+      <c r="B557" s="72">
         <v>44571</v>
       </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B557" s="12">
+      <c r="C557" s="75"/>
+      <c r="D557" s="75"/>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="77"/>
+      <c r="B558" s="72">
         <v>44571</v>
       </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B558" s="12">
+      <c r="C558" s="75"/>
+      <c r="D558" s="75"/>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="78"/>
+      <c r="B559" s="70">
         <v>44572</v>
       </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B559" s="12">
+      <c r="C559" s="38"/>
+      <c r="D559" s="38"/>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" s="78"/>
+      <c r="B560" s="70">
         <v>44572</v>
       </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B560" s="12">
+      <c r="C560" s="38"/>
+      <c r="D560" s="38"/>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" s="78"/>
+      <c r="B561" s="70">
         <v>44572</v>
       </c>
-    </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B561" s="12">
+      <c r="C561" s="38"/>
+      <c r="D561" s="38"/>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" s="77"/>
+      <c r="B562" s="72">
         <v>44573</v>
       </c>
-    </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B562" s="12">
+      <c r="C562" s="75"/>
+      <c r="D562" s="75"/>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563" s="77"/>
+      <c r="B563" s="72">
         <v>44573</v>
       </c>
-    </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B563" s="12">
+      <c r="C563" s="75"/>
+      <c r="D563" s="75"/>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" s="77"/>
+      <c r="B564" s="72">
         <v>44573</v>
       </c>
-    </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B564" s="12">
+      <c r="C564" s="75"/>
+      <c r="D564" s="75"/>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" s="78"/>
+      <c r="B565" s="70">
         <v>44574</v>
       </c>
-    </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B565" s="12">
+      <c r="C565" s="38"/>
+      <c r="D565" s="38"/>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" s="78"/>
+      <c r="B566" s="70">
         <v>44574</v>
       </c>
-    </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B566" s="12">
+      <c r="C566" s="38"/>
+      <c r="D566" s="38"/>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" s="78"/>
+      <c r="B567" s="70">
         <v>44574</v>
       </c>
-    </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B567" s="12">
+      <c r="C567" s="38"/>
+      <c r="D567" s="38"/>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" s="77"/>
+      <c r="B568" s="72">
         <v>44575</v>
       </c>
-    </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B568" s="12">
+      <c r="C568" s="75"/>
+      <c r="D568" s="75"/>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569" s="77"/>
+      <c r="B569" s="72">
         <v>44575</v>
       </c>
-    </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B569" s="12">
+      <c r="C569" s="75"/>
+      <c r="D569" s="75"/>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" s="77"/>
+      <c r="B570" s="72">
         <v>44575</v>
       </c>
-    </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B570" s="12">
+      <c r="C570" s="75"/>
+      <c r="D570" s="75"/>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571" s="78"/>
+      <c r="B571" s="70">
         <v>44578</v>
       </c>
-    </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B571" s="12">
+      <c r="C571" s="38"/>
+      <c r="D571" s="38"/>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572" s="78"/>
+      <c r="B572" s="70">
         <v>44578</v>
       </c>
-    </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B572" s="12">
+      <c r="C572" s="38"/>
+      <c r="D572" s="38"/>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" s="78"/>
+      <c r="B573" s="70">
         <v>44578</v>
       </c>
-    </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B573" s="12">
+      <c r="C573" s="38"/>
+      <c r="D573" s="38"/>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" s="77"/>
+      <c r="B574" s="72">
         <v>44579</v>
       </c>
-    </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B574" s="12">
+      <c r="C574" s="75"/>
+      <c r="D574" s="75"/>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575" s="77"/>
+      <c r="B575" s="72">
         <v>44579</v>
       </c>
-    </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B575" s="12">
+      <c r="C575" s="75"/>
+      <c r="D575" s="75"/>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" s="77"/>
+      <c r="B576" s="72">
         <v>44579</v>
       </c>
-    </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B576" s="12">
+      <c r="C576" s="75"/>
+      <c r="D576" s="75"/>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" s="78"/>
+      <c r="B577" s="70">
         <v>44580</v>
       </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B577" s="12">
+      <c r="C577" s="38"/>
+      <c r="D577" s="38"/>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" s="78"/>
+      <c r="B578" s="70">
         <v>44580</v>
       </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B578" s="12">
+      <c r="C578" s="38"/>
+      <c r="D578" s="38"/>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" s="78"/>
+      <c r="B579" s="70">
         <v>44580</v>
       </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B579" s="12">
+      <c r="C579" s="38"/>
+      <c r="D579" s="38"/>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580" s="77"/>
+      <c r="B580" s="72">
         <v>44581</v>
       </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B580" s="12">
+      <c r="C580" s="75"/>
+      <c r="D580" s="75"/>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" s="77"/>
+      <c r="B581" s="72">
         <v>44581</v>
       </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B581" s="12">
+      <c r="C581" s="75"/>
+      <c r="D581" s="75"/>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582" s="77"/>
+      <c r="B582" s="72">
         <v>44581</v>
       </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B582" s="12">
+      <c r="C582" s="75"/>
+      <c r="D582" s="75"/>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583" s="78"/>
+      <c r="B583" s="70">
         <v>44582</v>
       </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B583" s="12">
+      <c r="C583" s="38"/>
+      <c r="D583" s="38"/>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584" s="78"/>
+      <c r="B584" s="70">
         <v>44582</v>
       </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B584" s="12">
+      <c r="C584" s="38"/>
+      <c r="D584" s="38"/>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585" s="78"/>
+      <c r="B585" s="70">
         <v>44582</v>
       </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" s="3" t="s">
+      <c r="C585" s="38"/>
+      <c r="D585" s="38"/>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586" s="77" t="s">
         <v>1349</v>
       </c>
-      <c r="B585" s="12">
+      <c r="B586" s="72">
         <v>44583</v>
       </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" s="3" t="s">
+      <c r="C586" s="75"/>
+      <c r="D586" s="75"/>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" s="77" t="s">
         <v>1350</v>
       </c>
-      <c r="B586" s="12">
+      <c r="B587" s="72">
         <v>44583</v>
       </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" s="3" t="s">
+      <c r="C587" s="75"/>
+      <c r="D587" s="75"/>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" s="77" t="s">
         <v>1351</v>
       </c>
-      <c r="B587" s="12">
+      <c r="B588" s="72">
         <v>44583</v>
       </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B588" s="12">
+      <c r="C588" s="75"/>
+      <c r="D588" s="75"/>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" s="78"/>
+      <c r="B589" s="70">
         <v>44585</v>
       </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B589" s="12">
+      <c r="C589" s="38"/>
+      <c r="D589" s="38"/>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" s="78"/>
+      <c r="B590" s="70">
         <v>44585</v>
       </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B590" s="12">
+      <c r="C590" s="38"/>
+      <c r="D590" s="38"/>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" s="78"/>
+      <c r="B591" s="70">
         <v>44585</v>
       </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B591" s="12">
+      <c r="C591" s="38"/>
+      <c r="D591" s="38"/>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" s="77"/>
+      <c r="B592" s="72">
         <v>44586</v>
       </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B592" s="12">
+      <c r="C592" s="75"/>
+      <c r="D592" s="75"/>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" s="77"/>
+      <c r="B593" s="72">
         <v>44586</v>
       </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B593" s="12">
+      <c r="C593" s="75"/>
+      <c r="D593" s="75"/>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="77"/>
+      <c r="B594" s="72">
         <v>44586</v>
       </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B594" s="70" t="s">
+      <c r="C594" s="75"/>
+      <c r="D594" s="75"/>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="78"/>
+      <c r="B595" s="88" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B595" s="12">
+      <c r="C595" s="38"/>
+      <c r="D595" s="38"/>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="78"/>
+      <c r="B596" s="70">
         <v>44588</v>
       </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B596" s="12">
+      <c r="C596" s="38"/>
+      <c r="D596" s="38"/>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" s="78"/>
+      <c r="B597" s="70">
         <v>44588</v>
       </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B597" s="12">
+      <c r="C597" s="38"/>
+      <c r="D597" s="38"/>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" s="78"/>
+      <c r="B598" s="70">
         <v>44588</v>
       </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B598" s="12">
+      <c r="C598" s="38"/>
+      <c r="D598" s="38"/>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="77"/>
+      <c r="B599" s="72">
         <v>44589</v>
       </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B599" s="12">
+      <c r="C599" s="75"/>
+      <c r="D599" s="75"/>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" s="77"/>
+      <c r="B600" s="72">
         <v>44589</v>
       </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B600" s="12">
+      <c r="C600" s="75"/>
+      <c r="D600" s="75"/>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="77"/>
+      <c r="B601" s="72">
         <v>44589</v>
       </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B601" s="1" t="s">
+      <c r="C601" s="75"/>
+      <c r="D601" s="75"/>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" s="78"/>
+      <c r="B602" s="38" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" s="3" t="s">
+      <c r="C602" s="38"/>
+      <c r="D602" s="38"/>
+    </row>
+    <row r="603" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A603" s="95" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B603" s="96"/>
+      <c r="C603" s="96"/>
+      <c r="D603" s="97"/>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" s="77" t="s">
         <v>1353</v>
       </c>
-      <c r="B602" s="12">
+      <c r="B604" s="72">
         <v>44593</v>
       </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" s="3" t="s">
+      <c r="C604" s="75"/>
+      <c r="D604" s="75"/>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" s="77" t="s">
         <v>1370</v>
       </c>
-      <c r="B603" s="12">
+      <c r="B605" s="72">
         <v>44593</v>
       </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" s="3" t="s">
+      <c r="C605" s="75"/>
+      <c r="D605" s="75"/>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="78" t="s">
         <v>1371</v>
       </c>
-      <c r="B604" s="12">
+      <c r="B606" s="70">
         <v>44594</v>
       </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" s="3" t="s">
+      <c r="C606" s="38"/>
+      <c r="D606" s="38"/>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" s="78" t="s">
         <v>1372</v>
       </c>
-      <c r="B605" s="12">
+      <c r="B607" s="70">
         <v>44594</v>
       </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" s="3" t="s">
+      <c r="C607" s="38"/>
+      <c r="D607" s="38"/>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608" s="77" t="s">
         <v>1373</v>
       </c>
-      <c r="B606" s="12">
+      <c r="B608" s="72">
         <v>44595</v>
       </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" s="3" t="s">
+      <c r="C608" s="75"/>
+      <c r="D608" s="75"/>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609" s="77" t="s">
         <v>1374</v>
       </c>
-      <c r="B607" s="12">
+      <c r="B609" s="72">
         <v>44595</v>
       </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" s="3" t="s">
+      <c r="C609" s="75"/>
+      <c r="D609" s="75"/>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610" s="78" t="s">
         <v>1354</v>
       </c>
-      <c r="B608" s="12">
+      <c r="B610" s="70">
         <v>44596</v>
       </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" s="3" t="s">
+      <c r="C610" s="38"/>
+      <c r="D610" s="38"/>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611" s="78" t="s">
         <v>1375</v>
       </c>
-      <c r="B609" s="12">
+      <c r="B611" s="70">
         <v>44596</v>
       </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" s="3" t="s">
+      <c r="C611" s="38"/>
+      <c r="D611" s="38"/>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612" s="77" t="s">
         <v>1376</v>
       </c>
-      <c r="B610" s="12">
+      <c r="B612" s="72">
         <v>44597</v>
       </c>
-    </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611" s="3" t="s">
+      <c r="C612" s="75"/>
+      <c r="D612" s="75"/>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613" s="77" t="s">
         <v>1377</v>
       </c>
-      <c r="B611" s="12">
+      <c r="B613" s="72">
         <v>44597</v>
       </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B612" s="12">
+      <c r="C613" s="75"/>
+      <c r="D613" s="75"/>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614" s="78"/>
+      <c r="B614" s="70">
         <v>44599</v>
       </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B613" s="12">
+      <c r="C614" s="38"/>
+      <c r="D614" s="38"/>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615" s="78"/>
+      <c r="B615" s="70">
         <v>44599</v>
       </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B614" s="12">
+      <c r="C615" s="38"/>
+      <c r="D615" s="38"/>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616" s="78"/>
+      <c r="B616" s="70">
         <v>44599</v>
       </c>
-    </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B615" s="12">
+      <c r="C616" s="38"/>
+      <c r="D616" s="38"/>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617" s="77"/>
+      <c r="B617" s="72">
         <v>44600</v>
       </c>
-    </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B616" s="12">
+      <c r="C617" s="75"/>
+      <c r="D617" s="75"/>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" s="77"/>
+      <c r="B618" s="72">
         <v>44600</v>
       </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617" s="56" t="s">
+      <c r="C618" s="75"/>
+      <c r="D618" s="75"/>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619" s="69" t="s">
         <v>1355</v>
       </c>
-      <c r="B617" s="12">
+      <c r="B619" s="72">
         <v>44600</v>
       </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B618" s="12">
+      <c r="C619" s="75"/>
+      <c r="D619" s="75"/>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620" s="78"/>
+      <c r="B620" s="70">
         <v>44601</v>
       </c>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B619" s="12">
+      <c r="C620" s="38"/>
+      <c r="D620" s="38"/>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621" s="78"/>
+      <c r="B621" s="70">
         <v>44601</v>
       </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B620" s="12">
+      <c r="C621" s="38"/>
+      <c r="D621" s="38"/>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622" s="78"/>
+      <c r="B622" s="70">
         <v>44601</v>
       </c>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621" s="3" t="s">
+      <c r="C622" s="38"/>
+      <c r="D622" s="38"/>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623" s="77" t="s">
         <v>1378</v>
       </c>
-      <c r="B621" s="12">
+      <c r="B623" s="72">
         <v>44602</v>
       </c>
-    </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622" s="3" t="s">
+      <c r="C623" s="75"/>
+      <c r="D623" s="75"/>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624" s="77" t="s">
         <v>1379</v>
       </c>
-      <c r="B622" s="12">
+      <c r="B624" s="72">
         <v>44602</v>
       </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A623" s="3" t="s">
+      <c r="C624" s="75"/>
+      <c r="D624" s="75"/>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625" s="77" t="s">
         <v>1380</v>
       </c>
-      <c r="B623" s="12">
+      <c r="B625" s="72">
         <v>44602</v>
       </c>
-    </row>
-    <row r="624" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A624" s="3" t="s">
+      <c r="C625" s="75"/>
+      <c r="D625" s="75"/>
+    </row>
+    <row r="626" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A626" s="78" t="s">
         <v>1381</v>
       </c>
-      <c r="B624" s="12">
+      <c r="B626" s="70">
         <v>44603</v>
       </c>
-    </row>
-    <row r="625" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A625" s="3" t="s">
+      <c r="C626" s="38"/>
+      <c r="D626" s="38"/>
+    </row>
+    <row r="627" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A627" s="78" t="s">
         <v>1382</v>
       </c>
-      <c r="B625" s="12">
+      <c r="B627" s="70">
         <v>44603</v>
       </c>
-    </row>
-    <row r="626" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A626" s="3" t="s">
+      <c r="C627" s="38"/>
+      <c r="D627" s="38"/>
+    </row>
+    <row r="628" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A628" s="78" t="s">
         <v>1383</v>
       </c>
-      <c r="B626" s="12">
+      <c r="B628" s="70">
         <v>44603</v>
       </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627" s="3" t="s">
+      <c r="C628" s="38"/>
+      <c r="D628" s="38"/>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629" s="77" t="s">
         <v>1356</v>
       </c>
-      <c r="B627" s="12">
+      <c r="B629" s="72">
         <v>44606</v>
       </c>
-    </row>
-    <row r="628" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A628" s="3" t="s">
+      <c r="C629" s="75"/>
+      <c r="D629" s="75"/>
+    </row>
+    <row r="630" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A630" s="77" t="s">
         <v>1384</v>
       </c>
-      <c r="B628" s="12">
+      <c r="B630" s="72">
         <v>44606</v>
       </c>
-    </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A629" s="3" t="s">
+      <c r="C630" s="75"/>
+      <c r="D630" s="75"/>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631" s="77" t="s">
         <v>1385</v>
       </c>
-      <c r="B629" s="12">
+      <c r="B631" s="72">
         <v>44606</v>
       </c>
-    </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630" s="3" t="s">
+      <c r="C631" s="75"/>
+      <c r="D631" s="75"/>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632" s="78" t="s">
         <v>1357</v>
       </c>
-      <c r="B630" s="12">
+      <c r="B632" s="70">
         <v>44607</v>
       </c>
-    </row>
-    <row r="631" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A631" s="3" t="s">
+      <c r="C632" s="38"/>
+      <c r="D632" s="38"/>
+    </row>
+    <row r="633" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A633" s="78" t="s">
         <v>1369</v>
       </c>
-      <c r="B631" s="12">
+      <c r="B633" s="70">
         <v>44607</v>
       </c>
-    </row>
-    <row r="632" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A632" s="3" t="s">
+      <c r="C633" s="38"/>
+      <c r="D633" s="38"/>
+    </row>
+    <row r="634" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A634" s="77" t="s">
         <v>1386</v>
       </c>
-      <c r="B632" s="12">
+      <c r="B634" s="72">
         <v>44608</v>
       </c>
-    </row>
-    <row r="633" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A633" s="3" t="s">
+      <c r="C634" s="75"/>
+      <c r="D634" s="75"/>
+    </row>
+    <row r="635" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A635" s="77" t="s">
         <v>1387</v>
       </c>
-      <c r="B633" s="12">
+      <c r="B635" s="72">
         <v>44608</v>
       </c>
-    </row>
-    <row r="634" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A634" s="3" t="s">
+      <c r="C635" s="75"/>
+      <c r="D635" s="75"/>
+    </row>
+    <row r="636" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A636" s="77" t="s">
         <v>1388</v>
       </c>
-      <c r="B634" s="12">
+      <c r="B636" s="72">
         <v>44608</v>
       </c>
-    </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A635" s="3" t="s">
+      <c r="C636" s="75"/>
+      <c r="D636" s="75"/>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637" s="78" t="s">
         <v>1389</v>
       </c>
-      <c r="B635" s="12">
+      <c r="B637" s="70">
         <v>44609</v>
       </c>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A636" s="3" t="s">
+      <c r="C637" s="38"/>
+      <c r="D637" s="38"/>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638" s="78" t="s">
         <v>1390</v>
       </c>
-      <c r="B636" s="12">
+      <c r="B638" s="70">
         <v>44609</v>
       </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A637" s="3" t="s">
+      <c r="C638" s="38"/>
+      <c r="D638" s="38"/>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639" s="78" t="s">
         <v>1391</v>
       </c>
-      <c r="B637" s="12">
+      <c r="B639" s="70">
         <v>44609</v>
       </c>
-    </row>
-    <row r="638" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A638" s="3" t="s">
+      <c r="C639" s="38"/>
+      <c r="D639" s="38"/>
+    </row>
+    <row r="640" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A640" s="77" t="s">
         <v>1392</v>
       </c>
-      <c r="B638" s="12">
+      <c r="B640" s="72">
         <v>44610</v>
       </c>
-    </row>
-    <row r="639" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A639" s="3" t="s">
+      <c r="C640" s="75"/>
+      <c r="D640" s="75"/>
+    </row>
+    <row r="641" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A641" s="77" t="s">
         <v>1393</v>
       </c>
-      <c r="B639" s="12">
+      <c r="B641" s="72">
         <v>44610</v>
       </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A640" s="3" t="s">
+      <c r="C641" s="75"/>
+      <c r="D641" s="75"/>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642" s="77" t="s">
         <v>1394</v>
       </c>
-      <c r="B640" s="12">
+      <c r="B642" s="72">
         <v>44610</v>
       </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A641" s="3" t="s">
+      <c r="C642" s="75"/>
+      <c r="D642" s="75"/>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643" s="78" t="s">
         <v>1358</v>
       </c>
-      <c r="B641" s="12">
+      <c r="B643" s="70">
         <v>44611</v>
       </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A642" s="3" t="s">
+      <c r="C643" s="38"/>
+      <c r="D643" s="38"/>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644" s="78" t="s">
         <v>1359</v>
       </c>
-      <c r="B642" s="12">
+      <c r="B644" s="70">
         <v>44611</v>
       </c>
-    </row>
-    <row r="643" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A643" s="3" t="s">
+      <c r="C644" s="38"/>
+      <c r="D644" s="38"/>
+    </row>
+    <row r="645" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A645" s="77" t="s">
         <v>1360</v>
       </c>
-      <c r="B643" s="12">
+      <c r="B645" s="72">
         <v>44613</v>
       </c>
-    </row>
-    <row r="644" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A644" s="3" t="s">
+      <c r="C645" s="75"/>
+      <c r="D645" s="75"/>
+    </row>
+    <row r="646" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A646" s="77" t="s">
         <v>1362</v>
       </c>
-      <c r="B644" s="12">
+      <c r="B646" s="72">
         <v>44613</v>
       </c>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A645" s="3" t="s">
+      <c r="C646" s="75"/>
+      <c r="D646" s="75"/>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647" s="78" t="s">
         <v>1361</v>
       </c>
-      <c r="B645" s="12">
+      <c r="B647" s="70">
         <v>44614</v>
       </c>
-    </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A646" s="3" t="s">
+      <c r="C647" s="38"/>
+      <c r="D647" s="38"/>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648" s="78" t="s">
         <v>1363</v>
       </c>
-      <c r="B646" s="12">
+      <c r="B648" s="70">
         <v>44614</v>
       </c>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A647" s="3" t="s">
+      <c r="C648" s="38"/>
+      <c r="D648" s="38"/>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649" s="78" t="s">
         <v>1364</v>
       </c>
-      <c r="B647" s="12">
+      <c r="B649" s="70">
         <v>44614</v>
       </c>
-    </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A648" s="56" t="s">
+      <c r="C649" s="38"/>
+      <c r="D649" s="38"/>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650" s="77" t="s">
         <v>1395</v>
       </c>
-      <c r="B648" s="12">
+      <c r="B650" s="72">
         <v>44615</v>
       </c>
-      <c r="C648" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A649" s="56" t="s">
+      <c r="C650" s="75">
+        <v>1</v>
+      </c>
+      <c r="D650" s="75"/>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651" s="77" t="s">
         <v>1396</v>
       </c>
-      <c r="B649" s="12">
+      <c r="B651" s="72">
         <v>44615</v>
       </c>
-      <c r="C649" s="1">
+      <c r="C651" s="75">
         <v>3</v>
       </c>
-    </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A650" s="3" t="s">
+      <c r="D651" s="75"/>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652" s="77" t="s">
         <v>1397</v>
       </c>
-      <c r="B650" s="12">
+      <c r="B652" s="72">
         <v>44615</v>
       </c>
-      <c r="C650" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A651" s="56" t="s">
+      <c r="C652" s="75">
+        <v>1</v>
+      </c>
+      <c r="D652" s="75"/>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653" s="69" t="s">
         <v>1398</v>
       </c>
-      <c r="B651" s="12">
+      <c r="B653" s="72">
         <v>44615</v>
       </c>
-      <c r="C651" s="1">
+      <c r="C653" s="75">
         <v>3</v>
       </c>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A652" s="3" t="s">
+      <c r="D653" s="75"/>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654" s="78" t="s">
         <v>1399</v>
       </c>
-      <c r="B652" s="12">
+      <c r="B654" s="70">
         <v>44616</v>
       </c>
-      <c r="C652" s="1" t="s">
+      <c r="C654" s="38" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A653" s="3" t="s">
+      <c r="D654" s="38"/>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655" s="78" t="s">
         <v>1401</v>
       </c>
-      <c r="B653" s="12">
+      <c r="B655" s="70">
         <v>44616</v>
       </c>
-      <c r="C653" s="1" t="s">
+      <c r="C655" s="38" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="654" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A654" s="3" t="s">
+      <c r="D655" s="38"/>
+    </row>
+    <row r="656" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="78" t="s">
         <v>1403</v>
       </c>
-      <c r="B654" s="12">
+      <c r="B656" s="70">
         <v>44616</v>
       </c>
-    </row>
-    <row r="655" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A655" s="3" t="s">
+      <c r="C656" s="38"/>
+      <c r="D656" s="38"/>
+    </row>
+    <row r="657" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A657" s="77" t="s">
         <v>1403</v>
       </c>
-      <c r="B655" s="12">
+      <c r="B657" s="72">
         <v>44617</v>
       </c>
-    </row>
-    <row r="656" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="3" t="s">
+      <c r="C657" s="75"/>
+      <c r="D657" s="75"/>
+    </row>
+    <row r="658" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="77" t="s">
         <v>1403</v>
       </c>
-      <c r="B656" s="12">
+      <c r="B658" s="72">
         <v>44617</v>
       </c>
-    </row>
-    <row r="657" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="3" t="s">
+      <c r="C658" s="75"/>
+      <c r="D658" s="75"/>
+    </row>
+    <row r="659" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A659" s="77" t="s">
         <v>1403</v>
       </c>
-      <c r="B657" s="12">
+      <c r="B659" s="72">
         <v>44617</v>
       </c>
-    </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A658" s="3" t="s">
+      <c r="C659" s="75"/>
+      <c r="D659" s="75"/>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A660" s="78" t="s">
         <v>1406</v>
       </c>
-      <c r="B658" s="12">
+      <c r="B660" s="70">
         <v>44620</v>
       </c>
-    </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A659" s="3" t="s">
+      <c r="C660" s="38"/>
+      <c r="D660" s="38"/>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A661" s="78" t="s">
         <v>1404</v>
       </c>
-      <c r="B659" s="12">
+      <c r="B661" s="70">
         <v>44620</v>
       </c>
-    </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A660" s="3" t="s">
+      <c r="C661" s="38"/>
+      <c r="D661" s="38"/>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A662" s="78" t="s">
         <v>1405</v>
       </c>
-      <c r="B660" s="12">
+      <c r="B662" s="70">
         <v>44620</v>
       </c>
-    </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A661" s="3" t="s">
+      <c r="C662" s="38"/>
+      <c r="D662" s="38"/>
+    </row>
+    <row r="663" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A663" s="95" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B663" s="96"/>
+      <c r="C663" s="96"/>
+      <c r="D663" s="97"/>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A664" s="77" t="s">
         <v>1407</v>
       </c>
-      <c r="B661" s="12">
+      <c r="B664" s="72">
         <v>44621</v>
       </c>
-    </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A662" s="3" t="s">
+      <c r="C664" s="75"/>
+      <c r="D664" s="75"/>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A665" s="77" t="s">
         <v>1408</v>
       </c>
-      <c r="B662" s="12">
+      <c r="B665" s="72">
         <v>44621</v>
       </c>
-    </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A663" s="3" t="s">
+      <c r="C665" s="75"/>
+      <c r="D665" s="75"/>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A666" s="78" t="s">
         <v>1409</v>
       </c>
-      <c r="B663" s="12">
+      <c r="B666" s="70">
         <v>44622</v>
       </c>
-      <c r="C663" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A664" s="3" t="s">
+      <c r="C666" s="38">
+        <v>1</v>
+      </c>
+      <c r="D666" s="38"/>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A667" s="78" t="s">
         <v>1407</v>
       </c>
-      <c r="B664" s="12">
+      <c r="B667" s="70">
         <v>44622</v>
       </c>
-      <c r="C664" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A665" s="3" t="s">
+      <c r="C667" s="38">
+        <v>2</v>
+      </c>
+      <c r="D667" s="38"/>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A668" s="78" t="s">
         <v>1410</v>
       </c>
-      <c r="B665" s="12">
+      <c r="B668" s="70">
         <v>44622</v>
       </c>
-      <c r="C665" s="1">
+      <c r="C668" s="38">
         <v>5</v>
       </c>
-    </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A666" s="3" t="s">
+      <c r="D668" s="38"/>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A669" s="77" t="s">
         <v>1365</v>
       </c>
-      <c r="B666" s="12">
+      <c r="B669" s="72">
         <v>44623</v>
       </c>
-    </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A667" s="3" t="s">
+      <c r="C669" s="75"/>
+      <c r="D669" s="75"/>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A670" s="77" t="s">
         <v>1366</v>
       </c>
-      <c r="B667" s="12">
+      <c r="B670" s="72">
         <v>44623</v>
       </c>
-    </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A668" s="3" t="s">
+      <c r="C670" s="75"/>
+      <c r="D670" s="75"/>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A671" s="77" t="s">
         <v>1413</v>
       </c>
-      <c r="B668" s="12">
+      <c r="B671" s="72">
         <v>44623</v>
       </c>
-      <c r="C668" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A669" s="3" t="s">
+      <c r="C671" s="75">
+        <v>1</v>
+      </c>
+      <c r="D671" s="75"/>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A672" s="77" t="s">
         <v>1367</v>
       </c>
-      <c r="B669" s="12">
+      <c r="B672" s="72">
         <v>44623</v>
       </c>
-    </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A670" s="3" t="s">
+      <c r="C672" s="75"/>
+      <c r="D672" s="75"/>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A673" s="78" t="s">
         <v>1368</v>
       </c>
-      <c r="B670" s="12">
+      <c r="B673" s="70">
         <v>44624</v>
       </c>
-    </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A671" s="3" t="s">
+      <c r="C673" s="38"/>
+      <c r="D673" s="38"/>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A674" s="78" t="s">
         <v>1411</v>
       </c>
-      <c r="B671" s="12">
+      <c r="B674" s="70">
         <v>44624</v>
       </c>
-    </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A672" s="56" t="s">
+      <c r="C674" s="38"/>
+      <c r="D674" s="38"/>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A675" s="73" t="s">
         <v>1414</v>
       </c>
-      <c r="B672" s="12">
+      <c r="B675" s="70">
         <v>44624</v>
       </c>
-    </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A673" s="3" t="s">
+      <c r="C675" s="38"/>
+      <c r="D675" s="38"/>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A676" s="78" t="s">
         <v>1412</v>
       </c>
-      <c r="B673" s="12">
+      <c r="B676" s="70">
         <v>44624</v>
       </c>
-    </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B674" s="12">
+      <c r="C676" s="38"/>
+      <c r="D676" s="38"/>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A677" s="77"/>
+      <c r="B677" s="72">
         <v>44625</v>
       </c>
-    </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B675" s="12">
+      <c r="C677" s="75"/>
+      <c r="D677" s="75"/>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A678" s="77"/>
+      <c r="B678" s="72">
         <v>44625</v>
       </c>
-    </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A676" s="3" t="s">
+      <c r="C678" s="75"/>
+      <c r="D678" s="75"/>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A679" s="78" t="s">
         <v>1417</v>
       </c>
-      <c r="B676" s="12">
+      <c r="B679" s="70">
         <v>44627</v>
       </c>
-      <c r="C676" s="1" t="s">
+      <c r="C679" s="38" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B677" s="12">
+      <c r="D679" s="38"/>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A680" s="78"/>
+      <c r="B680" s="70">
         <v>44627</v>
       </c>
-    </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B678" s="12">
+      <c r="C680" s="38"/>
+      <c r="D680" s="38"/>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A681" s="78"/>
+      <c r="B681" s="70">
         <v>44627</v>
       </c>
-    </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B679" s="12">
+      <c r="C681" s="38"/>
+      <c r="D681" s="38"/>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A682" s="77"/>
+      <c r="B682" s="72">
         <v>44628</v>
       </c>
-    </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B680" s="12">
+      <c r="C682" s="75"/>
+      <c r="D682" s="75"/>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A683" s="77"/>
+      <c r="B683" s="72">
         <v>44628</v>
       </c>
-    </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B681" s="12">
+      <c r="C683" s="75"/>
+      <c r="D683" s="75"/>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A684" s="77"/>
+      <c r="B684" s="72">
         <v>44628</v>
       </c>
-    </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B682" s="12">
+      <c r="C684" s="75"/>
+      <c r="D684" s="75"/>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A685" s="78"/>
+      <c r="B685" s="70">
         <v>44629</v>
       </c>
-    </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B683" s="12">
+      <c r="C685" s="38"/>
+      <c r="D685" s="38"/>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A686" s="78"/>
+      <c r="B686" s="70">
         <v>44629</v>
       </c>
-    </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A684" s="56" t="s">
+      <c r="C686" s="38"/>
+      <c r="D686" s="38"/>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A687" s="73" t="s">
         <v>1419</v>
       </c>
-      <c r="B684" s="12">
+      <c r="B687" s="70">
         <v>44629</v>
       </c>
-    </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A685" s="3" t="s">
+      <c r="C687" s="38"/>
+      <c r="D687" s="38"/>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A688" s="77" t="s">
         <v>1422</v>
       </c>
-      <c r="B685" s="12">
+      <c r="B688" s="72">
         <v>44630</v>
       </c>
-    </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A686" s="56" t="s">
+      <c r="C688" s="75"/>
+      <c r="D688" s="75"/>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A689" s="69" t="s">
         <v>1420</v>
       </c>
-      <c r="B686" s="12">
+      <c r="B689" s="72">
         <v>44630</v>
       </c>
-    </row>
-    <row r="687" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A687" s="3" t="s">
+      <c r="C689" s="75"/>
+      <c r="D689" s="75"/>
+    </row>
+    <row r="690" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A690" s="77" t="s">
         <v>1421</v>
       </c>
-      <c r="B687" s="12">
+      <c r="B690" s="72">
         <v>44630</v>
       </c>
-    </row>
-    <row r="688" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A688" s="3" t="s">
+      <c r="C690" s="75"/>
+      <c r="D690" s="75"/>
+    </row>
+    <row r="691" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A691" s="78" t="s">
         <v>1423</v>
       </c>
-      <c r="B688" s="12">
+      <c r="B691" s="70">
         <v>44631</v>
       </c>
-    </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B689" s="12">
+      <c r="C691" s="38"/>
+      <c r="D691" s="38"/>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A692" s="78"/>
+      <c r="B692" s="70">
         <v>44631</v>
       </c>
-    </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B690" s="12">
+      <c r="C692" s="38"/>
+      <c r="D692" s="38"/>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A693" s="78"/>
+      <c r="B693" s="70">
         <v>44631</v>
       </c>
-    </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B691" s="1" t="s">
+      <c r="C693" s="38"/>
+      <c r="D693" s="38"/>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A694" s="77"/>
+      <c r="B694" s="75" t="s">
         <v>1415</v>
       </c>
-      <c r="D691" s="1" t="s">
+      <c r="C694" s="75"/>
+      <c r="D694" s="75" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A692" s="56" t="s">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A695" s="78" t="s">
         <v>1426</v>
       </c>
-      <c r="B692" s="12">
+      <c r="B695" s="70">
         <v>44636</v>
       </c>
-      <c r="C692" s="1" t="s">
+      <c r="C695" s="38" t="s">
         <v>1418</v>
       </c>
-      <c r="D692" s="1" t="s">
+      <c r="D695" s="38" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A693" s="56" t="s">
+      <c r="E695" s="89"/>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A696" s="78" t="s">
         <v>1427</v>
       </c>
-      <c r="B693" s="12">
+      <c r="B696" s="70">
         <v>44636</v>
       </c>
-      <c r="C693" s="71" t="s">
+      <c r="C696" s="90" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A694" s="56" t="s">
+      <c r="D696" s="38"/>
+      <c r="E696" s="89"/>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A697" s="78" t="s">
         <v>1428</v>
       </c>
-      <c r="B694" s="12">
+      <c r="B697" s="70">
         <v>44636</v>
       </c>
-      <c r="C694" s="71" t="s">
+      <c r="C697" s="90" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A695" s="56" t="s">
+      <c r="D697" s="38"/>
+      <c r="E697" s="89"/>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A698" s="78" t="s">
         <v>1430</v>
       </c>
-      <c r="B695" s="12">
+      <c r="B698" s="70">
         <v>44636</v>
       </c>
-      <c r="C695" s="71" t="s">
+      <c r="C698" s="90" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A696" s="56" t="s">
+      <c r="D698" s="38"/>
+      <c r="E698" s="89"/>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A699" s="77" t="s">
         <v>1434</v>
       </c>
-      <c r="B696" s="12">
+      <c r="B699" s="72">
         <v>44637</v>
       </c>
-      <c r="C696" s="1" t="s">
+      <c r="C699" s="75" t="s">
         <v>1425</v>
       </c>
-      <c r="D696" s="1" t="s">
+      <c r="D699" s="75" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A697" s="56" t="s">
+      <c r="E699" s="89"/>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A700" s="77" t="s">
         <v>1435</v>
       </c>
-      <c r="B697" s="12">
+      <c r="B700" s="72">
         <v>44637</v>
       </c>
-      <c r="C697" s="1" t="s">
+      <c r="C700" s="75" t="s">
         <v>1429</v>
       </c>
-      <c r="D697" s="1" t="s">
+      <c r="D700" s="75" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B698" s="12">
+      <c r="E700" s="89"/>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A701" s="77"/>
+      <c r="B701" s="72">
         <v>44637</v>
       </c>
-    </row>
-    <row r="699" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A699" s="3"/>
-      <c r="B699" s="12">
+      <c r="C701" s="75"/>
+      <c r="D701" s="75"/>
+      <c r="E701" s="89"/>
+    </row>
+    <row r="702" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A702" s="78"/>
+      <c r="B702" s="70">
         <v>44638</v>
       </c>
-      <c r="F699" s="1"/>
-    </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B700" s="12">
+      <c r="C702" s="38"/>
+      <c r="D702" s="38"/>
+      <c r="F702" s="1"/>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A703" s="78"/>
+      <c r="B703" s="70">
         <v>44638</v>
       </c>
-    </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B701" s="12">
+      <c r="C703" s="38"/>
+      <c r="D703" s="38"/>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A704" s="77"/>
+      <c r="B704" s="72">
         <v>44641</v>
       </c>
-    </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B702" s="12">
+      <c r="C704" s="75"/>
+      <c r="D704" s="75"/>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A705" s="77"/>
+      <c r="B705" s="72">
         <v>44641</v>
       </c>
-    </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A703" s="56" t="s">
+      <c r="C705" s="75"/>
+      <c r="D705" s="75"/>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A706" s="77" t="s">
         <v>1433</v>
       </c>
-      <c r="B703" s="12">
+      <c r="B706" s="72">
         <v>44641</v>
       </c>
-      <c r="C703" s="1" t="s">
+      <c r="C706" s="75" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A704" s="56" t="s">
+      <c r="D706" s="75"/>
+      <c r="E706" s="89"/>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A707" s="78" t="s">
         <v>1432</v>
       </c>
-      <c r="B704" s="12">
+      <c r="B707" s="70">
         <v>44642</v>
       </c>
-      <c r="C704" s="71" t="s">
+      <c r="C707" s="90" t="s">
         <v>1431</v>
       </c>
-      <c r="D704"/>
-      <c r="E704"/>
-    </row>
-    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B705" s="12">
+      <c r="D707" s="38"/>
+      <c r="E707"/>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A708" s="78"/>
+      <c r="B708" s="70">
         <v>44642</v>
       </c>
-    </row>
-    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B706" s="12">
+      <c r="C708" s="38"/>
+      <c r="D708" s="38"/>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A709" s="78"/>
+      <c r="B709" s="70">
         <v>44642</v>
       </c>
-    </row>
-    <row r="707" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B707" s="12">
+      <c r="C709" s="38"/>
+      <c r="D709" s="38"/>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A710" s="77"/>
+      <c r="B710" s="72">
         <v>44643</v>
       </c>
-    </row>
-    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B708" s="12">
+      <c r="C710" s="75"/>
+      <c r="D710" s="75"/>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A711" s="77"/>
+      <c r="B711" s="72">
         <v>44643</v>
       </c>
-    </row>
-    <row r="709" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B709" s="12">
+      <c r="C711" s="75"/>
+      <c r="D711" s="75"/>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A712" s="77"/>
+      <c r="B712" s="72">
         <v>44643</v>
       </c>
-    </row>
-    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B710" s="12">
+      <c r="C712" s="75"/>
+      <c r="D712" s="75"/>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A713" s="78"/>
+      <c r="B713" s="70">
         <v>44644</v>
       </c>
-    </row>
-    <row r="711" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B711" s="12">
+      <c r="C713" s="38"/>
+      <c r="D713" s="38"/>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A714" s="78"/>
+      <c r="B714" s="70">
         <v>44644</v>
       </c>
-    </row>
-    <row r="712" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B712" s="12">
+      <c r="C714" s="38"/>
+      <c r="D714" s="38"/>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A715" s="78"/>
+      <c r="B715" s="70">
         <v>44644</v>
       </c>
+      <c r="C715" s="38"/>
+      <c r="D715" s="38"/>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A716" s="78"/>
+      <c r="B716" s="70">
+        <v>44645</v>
+      </c>
+      <c r="C716" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="D716" s="38"/>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A717" s="77"/>
+      <c r="B717" s="72">
+        <v>44648</v>
+      </c>
+      <c r="C717" s="75"/>
+      <c r="D717" s="75"/>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A718" s="77"/>
+      <c r="B718" s="72">
+        <v>44648</v>
+      </c>
+      <c r="C718" s="75"/>
+      <c r="D718" s="75"/>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A719" s="77"/>
+      <c r="B719" s="72">
+        <v>44648</v>
+      </c>
+      <c r="C719" s="75"/>
+      <c r="D719" s="75"/>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A720" s="78"/>
+      <c r="B720" s="70">
+        <v>44649</v>
+      </c>
+      <c r="C720" s="38"/>
+      <c r="D720" s="38"/>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A721" s="78"/>
+      <c r="B721" s="70">
+        <v>44649</v>
+      </c>
+      <c r="C721" s="38"/>
+      <c r="D721" s="38"/>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A722" s="78"/>
+      <c r="B722" s="70">
+        <v>44649</v>
+      </c>
+      <c r="C722" s="38"/>
+      <c r="D722" s="38"/>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A723" s="77"/>
+      <c r="B723" s="72">
+        <v>44650</v>
+      </c>
+      <c r="C723" s="75"/>
+      <c r="D723" s="75"/>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A724" s="77"/>
+      <c r="B724" s="72">
+        <v>44650</v>
+      </c>
+      <c r="C724" s="75"/>
+      <c r="D724" s="75"/>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A725" s="77"/>
+      <c r="B725" s="72">
+        <v>44650</v>
+      </c>
+      <c r="C725" s="75"/>
+      <c r="D725" s="75"/>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A726" s="78"/>
+      <c r="B726" s="70">
+        <v>44651</v>
+      </c>
+      <c r="C726" s="38"/>
+      <c r="D726" s="38"/>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A727" s="78"/>
+      <c r="B727" s="70">
+        <v>44651</v>
+      </c>
+      <c r="C727" s="38"/>
+      <c r="D727" s="38"/>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A728" s="78"/>
+      <c r="B728" s="70">
+        <v>44651</v>
+      </c>
+      <c r="C728" s="38"/>
+      <c r="D728" s="38"/>
+    </row>
+    <row r="729" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A729" s="95" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B729" s="96"/>
+      <c r="C729" s="96"/>
+      <c r="D729" s="97"/>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A730" s="77"/>
+      <c r="B730" s="72">
+        <v>44652</v>
+      </c>
+      <c r="C730" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="D730" s="75"/>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A731" s="77"/>
+      <c r="B731" s="72">
+        <v>44653</v>
+      </c>
+      <c r="C731" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="D731" s="75"/>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A732" s="77"/>
+      <c r="B732" s="72">
+        <v>44655</v>
+      </c>
+      <c r="C732" s="75"/>
+      <c r="D732" s="75"/>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A733" s="77"/>
+      <c r="B733" s="72">
+        <v>44655</v>
+      </c>
+      <c r="C733" s="75"/>
+      <c r="D733" s="75"/>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A734" s="77"/>
+      <c r="B734" s="72">
+        <v>44655</v>
+      </c>
+      <c r="C734" s="75"/>
+      <c r="D734" s="75"/>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A735" s="78"/>
+      <c r="B735" s="70">
+        <v>44656</v>
+      </c>
+      <c r="C735" s="38"/>
+      <c r="D735" s="38"/>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A736" s="78"/>
+      <c r="B736" s="70">
+        <v>44656</v>
+      </c>
+      <c r="C736" s="38"/>
+      <c r="D736" s="38"/>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A737" s="78"/>
+      <c r="B737" s="70">
+        <v>44656</v>
+      </c>
+      <c r="C737" s="38"/>
+      <c r="D737" s="38"/>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A738" s="77"/>
+      <c r="B738" s="72">
+        <v>44657</v>
+      </c>
+      <c r="C738" s="75"/>
+      <c r="D738" s="75"/>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A739" s="77"/>
+      <c r="B739" s="72">
+        <v>44657</v>
+      </c>
+      <c r="C739" s="75"/>
+      <c r="D739" s="75"/>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A740" s="77"/>
+      <c r="B740" s="72">
+        <v>44657</v>
+      </c>
+      <c r="C740" s="75"/>
+      <c r="D740" s="75"/>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A741" s="78"/>
+      <c r="B741" s="70">
+        <v>44658</v>
+      </c>
+      <c r="C741" s="38"/>
+      <c r="D741" s="38"/>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A742" s="78"/>
+      <c r="B742" s="70">
+        <v>44658</v>
+      </c>
+      <c r="C742" s="38"/>
+      <c r="D742" s="38"/>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A743" s="78"/>
+      <c r="B743" s="70">
+        <v>44658</v>
+      </c>
+      <c r="C743" s="38"/>
+      <c r="D743" s="38"/>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A744" s="77"/>
+      <c r="B744" s="72">
+        <v>44659</v>
+      </c>
+      <c r="C744" s="75"/>
+      <c r="D744" s="75"/>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A745" s="77"/>
+      <c r="B745" s="72">
+        <v>44659</v>
+      </c>
+      <c r="C745" s="75"/>
+      <c r="D745" s="75"/>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A746" s="77"/>
+      <c r="B746" s="72">
+        <v>44659</v>
+      </c>
+      <c r="C746" s="75"/>
+      <c r="D746" s="75"/>
+    </row>
+    <row r="747" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A747" s="92"/>
+      <c r="B747" s="70">
+        <v>44662</v>
+      </c>
+      <c r="C747" s="38"/>
+      <c r="D747" s="38"/>
+    </row>
+    <row r="748" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A748" s="81"/>
+      <c r="B748" s="70">
+        <v>44662</v>
+      </c>
+      <c r="C748" s="38"/>
+      <c r="D748" s="38"/>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A749" s="78"/>
+      <c r="B749" s="70">
+        <v>44662</v>
+      </c>
+      <c r="C749" s="38"/>
+      <c r="D749" s="38"/>
+    </row>
+    <row r="750" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A750" s="80" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B750" s="72">
+        <v>44663</v>
+      </c>
+      <c r="C750" s="75">
+        <v>4</v>
+      </c>
+      <c r="D750" s="75"/>
+    </row>
+    <row r="751" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A751" s="80" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B751" s="72">
+        <v>44663</v>
+      </c>
+      <c r="C751" s="75">
+        <v>4</v>
+      </c>
+      <c r="D751" s="75"/>
+    </row>
+    <row r="752" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A752" s="91" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B752" s="70">
+        <v>44664</v>
+      </c>
+      <c r="C752" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A753" s="78" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B753" s="70">
+        <v>44664</v>
+      </c>
+      <c r="C753" s="38">
+        <v>3</v>
+      </c>
+      <c r="D753" s="38"/>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A754" s="78" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B754" s="70">
+        <v>44664</v>
+      </c>
+      <c r="C754" s="38">
+        <v>4</v>
+      </c>
+      <c r="D754" s="38"/>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A755" s="77" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B755" s="72">
+        <v>44665</v>
+      </c>
+      <c r="C755" s="75">
+        <v>7</v>
+      </c>
+      <c r="D755" s="75"/>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756" s="75" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B756" s="72">
+        <v>44665</v>
+      </c>
+      <c r="C756" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="D756" s="75"/>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A757" s="75" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B757" s="72">
+        <v>44665</v>
+      </c>
+      <c r="C757" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="D757" s="75"/>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A758" s="78" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B758" s="70">
+        <v>44666</v>
+      </c>
+      <c r="C758" s="38">
+        <v>4</v>
+      </c>
+      <c r="D758" s="38"/>
+    </row>
+    <row r="759" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A759" s="78" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B759" s="70">
+        <v>44666</v>
+      </c>
+      <c r="C759" s="38">
+        <v>3</v>
+      </c>
+      <c r="D759" s="38"/>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A760" s="78" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B760" s="70">
+        <v>44666</v>
+      </c>
+      <c r="C760" s="38">
+        <v>1</v>
+      </c>
+      <c r="D760" s="38"/>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A761" s="77" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B761" s="72">
+        <v>44667</v>
+      </c>
+      <c r="C761" s="75">
+        <v>5</v>
+      </c>
+      <c r="D761" s="75"/>
+    </row>
+    <row r="762" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A762" s="76" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B762" s="72">
+        <v>44667</v>
+      </c>
+      <c r="C762" s="75">
+        <v>3</v>
+      </c>
+      <c r="D762" s="75"/>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A763" s="38" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B763" s="70">
+        <v>44669</v>
+      </c>
+      <c r="C763" s="85" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D763" s="38"/>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A764" s="38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B764" s="70">
+        <v>44669</v>
+      </c>
+      <c r="C764" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="D764" s="38"/>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A765" s="38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B765" s="70">
+        <v>44669</v>
+      </c>
+      <c r="C765" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="D765" s="38"/>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A766" s="38" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B766" s="70">
+        <v>44669</v>
+      </c>
+      <c r="C766" s="38">
+        <v>2</v>
+      </c>
+      <c r="D766" s="38"/>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A767" s="38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B767" s="70">
+        <v>44669</v>
+      </c>
+      <c r="C767" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="D767" s="38"/>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A768" s="82" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B768" s="83">
+        <v>44669</v>
+      </c>
+      <c r="C768" s="84">
+        <v>4.5</v>
+      </c>
+      <c r="D768" s="84"/>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A769" s="77" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B769" s="72">
+        <v>44670</v>
+      </c>
+      <c r="C769" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="D769" s="75"/>
+    </row>
+    <row r="770" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A770" s="77" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B770" s="72">
+        <v>44670</v>
+      </c>
+      <c r="C770" s="75">
+        <v>3.5</v>
+      </c>
+      <c r="D770" s="75"/>
+    </row>
+    <row r="771" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A771" s="77" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B771" s="72">
+        <v>44670</v>
+      </c>
+      <c r="C771" s="75">
+        <v>4</v>
+      </c>
+      <c r="D771" s="75"/>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A772" s="78" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B772" s="70">
+        <v>44671</v>
+      </c>
+      <c r="C772" s="38">
+        <v>7</v>
+      </c>
+      <c r="D772" s="38"/>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A773" s="78" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B773" s="70">
+        <v>44671</v>
+      </c>
+      <c r="C773" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="D773" s="38"/>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A774" s="78" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B774" s="70">
+        <v>44671</v>
+      </c>
+      <c r="C774" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="D774" s="38"/>
+    </row>
+    <row r="775" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A775" s="80" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B775" s="72">
+        <v>44672</v>
+      </c>
+      <c r="C775" s="75">
+        <v>7.5</v>
+      </c>
+      <c r="D775" s="75"/>
+    </row>
+    <row r="776" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A776" s="80" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B776" s="72">
+        <v>44672</v>
+      </c>
+      <c r="C776" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="D776" s="75"/>
+    </row>
+    <row r="777" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A777" s="81" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B777" s="70">
+        <v>44673</v>
+      </c>
+      <c r="C777" s="38">
+        <v>3</v>
+      </c>
+      <c r="D777" s="38"/>
+    </row>
+    <row r="778" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A778" s="81" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B778" s="70">
+        <v>44673</v>
+      </c>
+      <c r="C778" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="D778" s="38"/>
+    </row>
+    <row r="779" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A779" s="81" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B779" s="70">
+        <v>44673</v>
+      </c>
+      <c r="C779" s="38">
+        <v>3.5</v>
+      </c>
+      <c r="D779" s="38"/>
+    </row>
+    <row r="780" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A780" s="80" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B780" s="72">
+        <v>44676</v>
+      </c>
+      <c r="C780" s="75">
+        <v>4</v>
+      </c>
+      <c r="D780" s="75"/>
+    </row>
+    <row r="781" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A781" s="80" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B781" s="72">
+        <v>44676</v>
+      </c>
+      <c r="C781" s="75">
+        <v>4</v>
+      </c>
+      <c r="D781" s="75"/>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A782" s="78" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B782" s="70">
+        <v>44677</v>
+      </c>
+      <c r="C782" s="38">
+        <v>2</v>
+      </c>
+      <c r="D782" s="38"/>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A783" s="78" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B783" s="70">
+        <v>44677</v>
+      </c>
+      <c r="C783" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="D783" s="38"/>
+    </row>
+    <row r="784" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A784" s="81" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B784" s="70">
+        <v>44677</v>
+      </c>
+      <c r="C784" s="38">
+        <v>5.5</v>
+      </c>
+      <c r="D784" s="38"/>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A785" s="77" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B785" s="71">
+        <v>44678</v>
+      </c>
+      <c r="C785" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="D785" s="75"/>
+    </row>
+    <row r="786" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A786" s="79" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B786" s="71">
+        <v>44678</v>
+      </c>
+      <c r="C786" s="75">
+        <v>4</v>
+      </c>
+      <c r="D786" s="75"/>
+    </row>
+    <row r="787" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A787" s="80" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B787" s="71">
+        <v>44678</v>
+      </c>
+      <c r="C787" s="75">
+        <v>3.5</v>
+      </c>
+      <c r="D787" s="75"/>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A788" s="78" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B788" s="70">
+        <v>44679</v>
+      </c>
+      <c r="C788" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="D788" s="38"/>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A789" s="73" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B789" s="70">
+        <v>44679</v>
+      </c>
+      <c r="C789" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="D789" s="38"/>
+    </row>
+    <row r="790" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A790" s="78" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B790" s="70">
+        <v>44679</v>
+      </c>
+      <c r="C790" s="38">
+        <v>3</v>
+      </c>
+      <c r="D790" s="38"/>
+    </row>
+    <row r="791" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A791" s="74" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B791" s="70">
+        <v>44679</v>
+      </c>
+      <c r="C791" s="38">
+        <v>4</v>
+      </c>
+      <c r="D791" s="38"/>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A792" s="77"/>
+      <c r="B792" s="72">
+        <v>44680</v>
+      </c>
+      <c r="C792" s="75"/>
+      <c r="D792" s="75"/>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A793" s="77"/>
+      <c r="B793" s="72">
+        <v>44680</v>
+      </c>
+      <c r="C793" s="75"/>
+      <c r="D793" s="75"/>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A794" s="77"/>
+      <c r="B794" s="72">
+        <v>44680</v>
+      </c>
+      <c r="C794" s="75"/>
+      <c r="D794" s="75"/>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A795" s="78"/>
+      <c r="B795" s="70">
+        <v>44681</v>
+      </c>
+      <c r="C795" s="38"/>
+      <c r="D795" s="38"/>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A796" s="78"/>
+      <c r="B796" s="70">
+        <v>44681</v>
+      </c>
+      <c r="C796" s="38"/>
+      <c r="D796" s="38"/>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A797" s="78"/>
+      <c r="B797" s="70">
+        <v>44681</v>
+      </c>
+      <c r="C797" s="38"/>
+      <c r="D797" s="38"/>
+    </row>
+    <row r="798" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A798" s="95" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B798" s="96"/>
+      <c r="C798" s="96"/>
+      <c r="D798" s="97"/>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A799" s="78"/>
+      <c r="B799" s="70">
+        <v>44683</v>
+      </c>
+      <c r="C799" s="38"/>
+      <c r="D799" s="38"/>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A800" s="78"/>
+      <c r="B800" s="70">
+        <v>44683</v>
+      </c>
+      <c r="C800" s="38"/>
+      <c r="D800" s="38"/>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A801" s="78"/>
+      <c r="B801" s="70">
+        <v>44683</v>
+      </c>
+      <c r="C801" s="38"/>
+      <c r="D801" s="38"/>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A802" s="77"/>
+      <c r="B802" s="72">
+        <v>44684</v>
+      </c>
+      <c r="C802" s="75"/>
+      <c r="D802" s="75"/>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A803" s="77"/>
+      <c r="B803" s="72">
+        <v>44684</v>
+      </c>
+      <c r="C803" s="75"/>
+      <c r="D803" s="75"/>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A804" s="77"/>
+      <c r="B804" s="72">
+        <v>44684</v>
+      </c>
+      <c r="C804" s="75"/>
+      <c r="D804" s="75"/>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A805" s="78"/>
+      <c r="B805" s="70">
+        <v>44685</v>
+      </c>
+      <c r="C805" s="38"/>
+      <c r="D805" s="38"/>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A806" s="78"/>
+      <c r="B806" s="70">
+        <v>44685</v>
+      </c>
+      <c r="C806" s="38"/>
+      <c r="D806" s="38"/>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A807" s="78"/>
+      <c r="B807" s="70">
+        <v>44685</v>
+      </c>
+      <c r="C807" s="38"/>
+      <c r="D807" s="38"/>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A808" s="77"/>
+      <c r="B808" s="72">
+        <v>44686</v>
+      </c>
+      <c r="C808" s="75"/>
+      <c r="D808" s="75"/>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A809" s="77"/>
+      <c r="B809" s="72">
+        <v>44686</v>
+      </c>
+      <c r="C809" s="75"/>
+      <c r="D809" s="75"/>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A810" s="77"/>
+      <c r="B810" s="72">
+        <v>44686</v>
+      </c>
+      <c r="C810" s="75"/>
+      <c r="D810" s="75"/>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A811" s="78"/>
+      <c r="B811" s="70">
+        <v>44687</v>
+      </c>
+      <c r="C811" s="38"/>
+      <c r="D811" s="38"/>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A812" s="78"/>
+      <c r="B812" s="70">
+        <v>44687</v>
+      </c>
+      <c r="C812" s="38"/>
+      <c r="D812" s="38"/>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A813" s="78"/>
+      <c r="B813" s="70">
+        <v>44687</v>
+      </c>
+      <c r="C813" s="38"/>
+      <c r="D813" s="38"/>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A814" s="78"/>
+      <c r="B814" s="70">
+        <v>44690</v>
+      </c>
+      <c r="C814" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="D814" s="38"/>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A815" s="77" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B815" s="72">
+        <v>44691</v>
+      </c>
+      <c r="C815" s="75">
+        <v>2</v>
+      </c>
+      <c r="D815" s="75"/>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A816" s="77" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B816" s="72">
+        <v>44691</v>
+      </c>
+      <c r="C816" s="75">
+        <v>1</v>
+      </c>
+      <c r="D816" s="75"/>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A817" s="94" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B817" s="72">
+        <v>44691</v>
+      </c>
+      <c r="C817" s="75">
+        <v>5</v>
+      </c>
+      <c r="D817" s="75"/>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A818" s="78" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B818" s="70">
+        <v>44692</v>
+      </c>
+      <c r="C818" s="38">
+        <v>2</v>
+      </c>
+      <c r="D818" s="38"/>
+    </row>
+    <row r="819" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A819" s="81" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B819" s="70">
+        <v>44692</v>
+      </c>
+      <c r="C819" s="38">
+        <v>3</v>
+      </c>
+      <c r="D819" s="38"/>
+    </row>
+    <row r="820" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A820" s="81" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B820" s="70">
+        <v>44692</v>
+      </c>
+      <c r="C820" s="38">
+        <v>3</v>
+      </c>
+      <c r="D820" s="38"/>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A821" s="77" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B821" s="72">
+        <v>44693</v>
+      </c>
+      <c r="C821" s="75">
+        <v>3</v>
+      </c>
+      <c r="D821" s="75"/>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A822" s="77" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B822" s="72">
+        <v>44693</v>
+      </c>
+      <c r="C822" s="75">
+        <v>2</v>
+      </c>
+      <c r="D822" s="75"/>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A823" s="99" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B823" s="83">
+        <v>44693</v>
+      </c>
+      <c r="C823" s="100">
+        <v>3</v>
+      </c>
+      <c r="D823" s="100" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E823" s="101"/>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A824" s="73" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B824" s="70">
+        <v>44694</v>
+      </c>
+      <c r="C824" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="D824" s="38" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A825" s="78" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B825" s="70">
+        <v>44694</v>
+      </c>
+      <c r="C825" s="38">
+        <v>2</v>
+      </c>
+      <c r="D825" s="38"/>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A826" s="78"/>
+      <c r="B826" s="70">
+        <v>44694</v>
+      </c>
+      <c r="C826" s="38"/>
+      <c r="D826" s="38"/>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A827" s="78"/>
+      <c r="B827" s="70">
+        <v>44695</v>
+      </c>
+      <c r="C827" s="38"/>
+      <c r="D827" s="38"/>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A828" s="78"/>
+      <c r="B828" s="70">
+        <v>44695</v>
+      </c>
+      <c r="C828" s="38"/>
+      <c r="D828" s="38"/>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A829" s="78"/>
+      <c r="B829" s="70">
+        <v>44695</v>
+      </c>
+      <c r="C829" s="38"/>
+      <c r="D829" s="38"/>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A830" s="78"/>
+      <c r="B830" s="70">
+        <v>44697</v>
+      </c>
+      <c r="C830" s="38"/>
+      <c r="D830" s="38"/>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A831" s="78"/>
+      <c r="B831" s="70">
+        <v>44697</v>
+      </c>
+      <c r="C831" s="38"/>
+      <c r="D831" s="38"/>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A832" s="78"/>
+      <c r="B832" s="70">
+        <v>44697</v>
+      </c>
+      <c r="C832" s="38"/>
+      <c r="D832" s="38"/>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A833" s="78"/>
+      <c r="B833" s="70">
+        <v>44698</v>
+      </c>
+      <c r="C833" s="38"/>
+      <c r="D833" s="38"/>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A834" s="78"/>
+      <c r="B834" s="70">
+        <v>44698</v>
+      </c>
+      <c r="C834" s="38"/>
+      <c r="D834" s="38"/>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A835" s="78"/>
+      <c r="B835" s="70">
+        <v>44698</v>
+      </c>
+      <c r="C835" s="38"/>
+      <c r="D835" s="38"/>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A836" s="78"/>
+      <c r="B836" s="70">
+        <v>44699</v>
+      </c>
+      <c r="C836" s="38"/>
+      <c r="D836" s="38"/>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A837" s="78"/>
+      <c r="B837" s="70">
+        <v>44699</v>
+      </c>
+      <c r="C837" s="38"/>
+      <c r="D837" s="38"/>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A838" s="78"/>
+      <c r="B838" s="70">
+        <v>44699</v>
+      </c>
+      <c r="C838" s="38"/>
+      <c r="D838" s="38"/>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A839" s="78"/>
+      <c r="B839" s="70">
+        <v>44700</v>
+      </c>
+      <c r="C839" s="38"/>
+      <c r="D839" s="38"/>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A840" s="78"/>
+      <c r="B840" s="70">
+        <v>44700</v>
+      </c>
+      <c r="C840" s="38"/>
+      <c r="D840" s="38"/>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A841" s="78"/>
+      <c r="B841" s="70">
+        <v>44700</v>
+      </c>
+      <c r="C841" s="38"/>
+      <c r="D841" s="38"/>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A842" s="78"/>
+      <c r="B842" s="70">
+        <v>44701</v>
+      </c>
+      <c r="C842" s="38"/>
+      <c r="D842" s="38"/>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A843" s="78"/>
+      <c r="B843" s="70">
+        <v>44701</v>
+      </c>
+      <c r="C843" s="38"/>
+      <c r="D843" s="38"/>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A844" s="78"/>
+      <c r="B844" s="70">
+        <v>44701</v>
+      </c>
+      <c r="C844" s="38"/>
+      <c r="D844" s="38"/>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A845" s="78"/>
+      <c r="B845" s="70">
+        <v>44704</v>
+      </c>
+      <c r="C845" s="38"/>
+      <c r="D845" s="38"/>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A846" s="78"/>
+      <c r="B846" s="70">
+        <v>44704</v>
+      </c>
+      <c r="C846" s="38"/>
+      <c r="D846" s="38"/>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A847" s="78"/>
+      <c r="B847" s="70">
+        <v>44704</v>
+      </c>
+      <c r="C847" s="38"/>
+      <c r="D847" s="38"/>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A848" s="78"/>
+      <c r="B848" s="70">
+        <v>44705</v>
+      </c>
+      <c r="C848" s="38"/>
+      <c r="D848" s="38"/>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A849" s="78"/>
+      <c r="B849" s="70">
+        <v>44705</v>
+      </c>
+      <c r="C849" s="38"/>
+      <c r="D849" s="38"/>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A850" s="78"/>
+      <c r="B850" s="70">
+        <v>44705</v>
+      </c>
+      <c r="C850" s="38"/>
+      <c r="D850" s="38"/>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A851" s="78"/>
+      <c r="B851" s="70">
+        <v>44706</v>
+      </c>
+      <c r="C851" s="38"/>
+      <c r="D851" s="38"/>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A852" s="78"/>
+      <c r="B852" s="70">
+        <v>44706</v>
+      </c>
+      <c r="C852" s="38"/>
+      <c r="D852" s="38"/>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A853" s="78"/>
+      <c r="B853" s="70">
+        <v>44706</v>
+      </c>
+      <c r="C853" s="38"/>
+      <c r="D853" s="38"/>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A854" s="78"/>
+      <c r="B854" s="70">
+        <v>44707</v>
+      </c>
+      <c r="C854" s="38"/>
+      <c r="D854" s="38"/>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A855" s="78"/>
+      <c r="B855" s="70">
+        <v>44707</v>
+      </c>
+      <c r="C855" s="38"/>
+      <c r="D855" s="38"/>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A856" s="78"/>
+      <c r="B856" s="70">
+        <v>44707</v>
+      </c>
+      <c r="C856" s="38"/>
+      <c r="D856" s="38"/>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A857" s="78"/>
+      <c r="B857" s="70">
+        <v>44708</v>
+      </c>
+      <c r="C857" s="38"/>
+      <c r="D857" s="38"/>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A858" s="78"/>
+      <c r="B858" s="70">
+        <v>44708</v>
+      </c>
+      <c r="C858" s="38"/>
+      <c r="D858" s="38"/>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A859" s="78"/>
+      <c r="B859" s="70">
+        <v>44708</v>
+      </c>
+      <c r="C859" s="38"/>
+      <c r="D859" s="38"/>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A860" s="78"/>
+      <c r="B860" s="70">
+        <v>44709</v>
+      </c>
+      <c r="C860" s="38"/>
+      <c r="D860" s="38"/>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A861" s="78"/>
+      <c r="B861" s="70">
+        <v>44709</v>
+      </c>
+      <c r="C861" s="38"/>
+      <c r="D861" s="38"/>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A862" s="78"/>
+      <c r="B862" s="70">
+        <v>44709</v>
+      </c>
+      <c r="C862" s="38"/>
+      <c r="D862" s="38"/>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A863" s="78"/>
+      <c r="B863" s="70">
+        <v>44711</v>
+      </c>
+      <c r="C863" s="38"/>
+      <c r="D863" s="38"/>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A864" s="78"/>
+      <c r="B864" s="70">
+        <v>44711</v>
+      </c>
+      <c r="C864" s="38"/>
+      <c r="D864" s="38"/>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A865" s="78"/>
+      <c r="B865" s="70">
+        <v>44711</v>
+      </c>
+      <c r="C865" s="38"/>
+      <c r="D865" s="38"/>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A866" s="78"/>
+      <c r="B866" s="70">
+        <v>44712</v>
+      </c>
+      <c r="C866" s="38"/>
+      <c r="D866" s="38"/>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A867" s="78"/>
+      <c r="B867" s="70">
+        <v>44712</v>
+      </c>
+      <c r="C867" s="38"/>
+      <c r="D867" s="38"/>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A868" s="78"/>
+      <c r="B868" s="70">
+        <v>44712</v>
+      </c>
+      <c r="C868" s="38"/>
+      <c r="D868" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="A663:D663"/>
+    <mergeCell ref="A729:D729"/>
+    <mergeCell ref="A798:D798"/>
     <mergeCell ref="A536:D536"/>
+    <mergeCell ref="A537:D537"/>
+    <mergeCell ref="A603:D603"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A776" r:id="rId1" display="mailto:nikkitas@chetu.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -24740,6 +26887,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <EmailTo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailHeaders xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <EmailSender xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailFrom xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailSubject xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailCc xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="ce702dbc-854a-42dd-af67-dde56e8239cb">DF6JW355AR5D-25420-2</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="ce702dbc-854a-42dd-af67-dde56e8239cb">
+      <Url>http://backbone:9090/Customer-Projects/ChetuWebsite-INTL/_layouts/DocIdRedir.aspx?ID=DF6JW355AR5D-25420-2</Url>
+      <Description>DF6JW355AR5D-25420-2</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC5A0676C32FE54491A031539416AFA5" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d8cae8b45ca7a8c260538af4b70af00">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ce702dbc-854a-42dd-af67-dde56e8239cb" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97946c07194fa388b3b45b7b41104f08" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -24936,34 +27101,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <EmailTo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailHeaders xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <EmailSender xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailFrom xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailSubject xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailCc xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="ce702dbc-854a-42dd-af67-dde56e8239cb">DF6JW355AR5D-25420-2</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="ce702dbc-854a-42dd-af67-dde56e8239cb">
-      <Url>http://backbone:9090/Customer-Projects/ChetuWebsite-INTL/_layouts/DocIdRedir.aspx?ID=DF6JW355AR5D-25420-2</Url>
-      <Description>DF6JW355AR5D-25420-2</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -25013,7 +27151,34 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6FB9C62-82B0-4A66-98D1-4D5A122636B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="ce702dbc-854a-42dd-af67-dde56e8239cb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17EE96B7-FCEC-4119-83FC-239E149D1BF7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25033,36 +27198,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6FB9C62-82B0-4A66-98D1-4D5A122636B2}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EA5D6CC-E012-4906-853F-E1545189C3A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="ce702dbc-854a-42dd-af67-dde56e8239cb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5E8B53-4D6B-4289-9AE5-BAE92A53F138}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EA5D6CC-E012-4906-853F-E1545189C3A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ChetuGlobalATS-INTL_ResourceUtilization.xlsx
+++ b/ChetuGlobalATS-INTL_ResourceUtilization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="3" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Shubham" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="1506">
   <si>
     <t>Task Name</t>
   </si>
@@ -4924,12 +4924,126 @@
   <si>
     <t>Worked on to resolve the one of the two issues as provided by QA for new module Employee Details</t>
   </si>
+  <si>
+    <t>Offer Accepted but not showing in Onboarding</t>
+  </si>
+  <si>
+    <t>by anujg3@chetu.com</t>
+  </si>
+  <si>
+    <t>Clause Change - Offer Letter</t>
+  </si>
+  <si>
+    <t>Worked on to make only PAN, Name and Employee Id compulsory in Employee Details module on local system.</t>
+  </si>
+  <si>
+    <t>Worked on to deploy changes on new server APPDB02. Several stored procedures were modified, along with API and FrontEnd. Also resolve some issues that are created after migration</t>
+  </si>
+  <si>
+    <t>Worked on to resolve the issues provided by QA for v6.4.0.2</t>
+  </si>
+  <si>
+    <t>Worked on to create API to save and update records.</t>
+  </si>
+  <si>
+    <t>Worked on to create database entities for Employee details.</t>
+  </si>
+  <si>
+    <t>Worked on to create API to fetch records of all employees.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Worked on to create stored procedure </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> Usp_SaveEmployeeDetails</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to save and update records.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Worked on to create database entities for Employee details.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Worked on to create stored procedure </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Usp_GetEmployeeDetails </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>to fetch records of all employees.</t>
+    </r>
+  </si>
+  <si>
+    <t>Resolved issue of download after migration.</t>
+  </si>
+  <si>
+    <t>Deployed modifications in Employee Details on server</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5100,6 +5214,20 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="9">
@@ -5306,7 +5434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5514,6 +5642,7 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5526,11 +5655,20 @@
     <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="21" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9720,11 +9858,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F868"/>
+  <dimension ref="A1:F869"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A799" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B827" sqref="B827"/>
+      <pane ySplit="1" topLeftCell="A827" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A835" sqref="A835"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15473,20 +15611,20 @@
       </c>
     </row>
     <row r="536" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A536" s="98" t="s">
+      <c r="A536" s="99" t="s">
         <v>1334</v>
       </c>
-      <c r="B536" s="98"/>
-      <c r="C536" s="98"/>
-      <c r="D536" s="98"/>
+      <c r="B536" s="99"/>
+      <c r="C536" s="99"/>
+      <c r="D536" s="99"/>
     </row>
     <row r="537" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A537" s="95" t="s">
+      <c r="A537" s="96" t="s">
         <v>1473</v>
       </c>
-      <c r="B537" s="96"/>
-      <c r="C537" s="96"/>
-      <c r="D537" s="97"/>
+      <c r="B537" s="97"/>
+      <c r="C537" s="97"/>
+      <c r="D537" s="98"/>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="77" t="s">
@@ -16027,12 +16165,12 @@
       <c r="D602" s="38"/>
     </row>
     <row r="603" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A603" s="95" t="s">
+      <c r="A603" s="96" t="s">
         <v>1474</v>
       </c>
-      <c r="B603" s="96"/>
-      <c r="C603" s="96"/>
-      <c r="D603" s="97"/>
+      <c r="B603" s="97"/>
+      <c r="C603" s="97"/>
+      <c r="D603" s="98"/>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="77" t="s">
@@ -16621,12 +16759,12 @@
       <c r="D662" s="38"/>
     </row>
     <row r="663" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A663" s="95" t="s">
+      <c r="A663" s="96" t="s">
         <v>1475</v>
       </c>
-      <c r="B663" s="96"/>
-      <c r="C663" s="96"/>
-      <c r="D663" s="97"/>
+      <c r="B663" s="97"/>
+      <c r="C663" s="97"/>
+      <c r="D663" s="98"/>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="77" t="s">
@@ -17249,12 +17387,12 @@
       <c r="D728" s="38"/>
     </row>
     <row r="729" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A729" s="95" t="s">
+      <c r="A729" s="96" t="s">
         <v>1476</v>
       </c>
-      <c r="B729" s="96"/>
-      <c r="C729" s="96"/>
-      <c r="D729" s="97"/>
+      <c r="B729" s="97"/>
+      <c r="C729" s="97"/>
+      <c r="D729" s="98"/>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" s="77"/>
@@ -17972,12 +18110,12 @@
       <c r="D797" s="38"/>
     </row>
     <row r="798" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A798" s="95" t="s">
+      <c r="A798" s="96" t="s">
         <v>1477</v>
       </c>
-      <c r="B798" s="96"/>
-      <c r="C798" s="96"/>
-      <c r="D798" s="97"/>
+      <c r="B798" s="97"/>
+      <c r="C798" s="97"/>
+      <c r="D798" s="98"/>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" s="78"/>
@@ -18051,63 +18189,87 @@
       <c r="C807" s="38"/>
       <c r="D807" s="38"/>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A808" s="77"/>
+    <row r="808" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A808" s="79" t="s">
+        <v>1502</v>
+      </c>
       <c r="B808" s="72">
         <v>44686</v>
       </c>
-      <c r="C808" s="75"/>
+      <c r="C808" s="75">
+        <v>2</v>
+      </c>
       <c r="D808" s="75"/>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A809" s="77"/>
+    <row r="809" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A809" s="107" t="s">
+        <v>1503</v>
+      </c>
       <c r="B809" s="72">
         <v>44686</v>
       </c>
-      <c r="C809" s="75"/>
+      <c r="C809" s="75">
+        <v>3</v>
+      </c>
       <c r="D809" s="75"/>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A810" s="77"/>
+    <row r="810" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A810" s="80" t="s">
+        <v>1501</v>
+      </c>
       <c r="B810" s="72">
         <v>44686</v>
       </c>
-      <c r="C810" s="75"/>
+      <c r="C810" s="75">
+        <v>3</v>
+      </c>
       <c r="D810" s="75"/>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A811" s="78"/>
+    <row r="811" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A811" s="91" t="s">
+        <v>1499</v>
+      </c>
       <c r="B811" s="70">
         <v>44687</v>
       </c>
-      <c r="C811" s="38"/>
+      <c r="C811" s="38">
+        <v>3</v>
+      </c>
       <c r="D811" s="38"/>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A812" s="78"/>
+    <row r="812" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A812" s="91" t="s">
+        <v>1500</v>
+      </c>
       <c r="B812" s="70">
         <v>44687</v>
       </c>
-      <c r="C812" s="38"/>
+      <c r="C812" s="38">
+        <v>4</v>
+      </c>
       <c r="D812" s="38"/>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A813" s="78"/>
+    <row r="813" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A813" s="81" t="s">
+        <v>1498</v>
+      </c>
       <c r="B813" s="70">
         <v>44687</v>
       </c>
-      <c r="C813" s="38"/>
+      <c r="C813" s="38">
+        <v>1</v>
+      </c>
       <c r="D813" s="38"/>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A814" s="78"/>
-      <c r="B814" s="70">
+      <c r="A814" s="103"/>
+      <c r="B814" s="104">
         <v>44690</v>
       </c>
-      <c r="C814" s="88" t="s">
+      <c r="C814" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="D814" s="38"/>
+      <c r="D814" s="105"/>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" s="77" t="s">
@@ -18192,6 +18354,7 @@
         <v>3</v>
       </c>
       <c r="D821" s="75"/>
+      <c r="E821" s="89"/>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="77" t="s">
@@ -18204,24 +18367,25 @@
         <v>2</v>
       </c>
       <c r="D822" s="75"/>
+      <c r="E822" s="89"/>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A823" s="99" t="s">
+      <c r="A823" s="102" t="s">
         <v>1487</v>
       </c>
       <c r="B823" s="83">
         <v>44693</v>
       </c>
-      <c r="C823" s="100">
+      <c r="C823" s="84">
         <v>3</v>
       </c>
-      <c r="D823" s="100" t="s">
+      <c r="D823" s="84" t="s">
         <v>1486</v>
       </c>
-      <c r="E823" s="101"/>
+      <c r="E823" s="95"/>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A824" s="73" t="s">
+      <c r="A824" s="78" t="s">
         <v>1483</v>
       </c>
       <c r="B824" s="70">
@@ -18233,6 +18397,7 @@
       <c r="D824" s="38" t="s">
         <v>1484</v>
       </c>
+      <c r="E824" s="89"/>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="78" t="s">
@@ -18245,120 +18410,175 @@
         <v>2</v>
       </c>
       <c r="D825" s="38"/>
+      <c r="E825" s="89"/>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A826" s="78"/>
+      <c r="A826" s="78" t="s">
+        <v>1497</v>
+      </c>
       <c r="B826" s="70">
         <v>44694</v>
       </c>
-      <c r="C826" s="38"/>
+      <c r="C826" s="38">
+        <v>3.5</v>
+      </c>
       <c r="D826" s="38"/>
+      <c r="E826" s="89"/>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A827" s="78"/>
+      <c r="A827" s="38" t="s">
+        <v>1494</v>
+      </c>
       <c r="B827" s="70">
+        <v>44694</v>
+      </c>
+      <c r="C827" s="38">
+        <v>2</v>
+      </c>
+      <c r="D827" s="38"/>
+      <c r="E827" s="89"/>
+    </row>
+    <row r="828" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A828" s="76" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B828" s="100">
         <v>44695</v>
       </c>
-      <c r="C827" s="38"/>
-      <c r="D827" s="38"/>
-    </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A828" s="78"/>
-      <c r="B828" s="70">
+      <c r="C828" s="101">
+        <v>4</v>
+      </c>
+      <c r="D828" s="101"/>
+      <c r="E828" s="89"/>
+    </row>
+    <row r="829" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A829" s="80" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B829" s="100">
         <v>44695</v>
       </c>
-      <c r="C828" s="38"/>
-      <c r="D828" s="38"/>
-    </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A829" s="78"/>
-      <c r="B829" s="70">
+      <c r="C829" s="101">
+        <v>2</v>
+      </c>
+      <c r="D829" s="101"/>
+      <c r="E829" s="89"/>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A830" s="101" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B830" s="100">
         <v>44695</v>
       </c>
-      <c r="C829" s="38"/>
-      <c r="D829" s="38"/>
-    </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A830" s="78"/>
-      <c r="B830" s="70">
-        <v>44697</v>
-      </c>
-      <c r="C830" s="38"/>
-      <c r="D830" s="38"/>
+      <c r="C830" s="101">
+        <v>2</v>
+      </c>
+      <c r="D830" s="101"/>
+      <c r="E830" s="89"/>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A831" s="78"/>
+      <c r="A831" s="78" t="s">
+        <v>1492</v>
+      </c>
       <c r="B831" s="70">
         <v>44697</v>
       </c>
-      <c r="C831" s="38"/>
-      <c r="D831" s="38"/>
+      <c r="C831" s="38">
+        <v>2</v>
+      </c>
+      <c r="D831" s="38" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E831" s="89"/>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A832" s="78"/>
+      <c r="A832" s="38" t="s">
+        <v>1494</v>
+      </c>
       <c r="B832" s="70">
         <v>44697</v>
       </c>
-      <c r="C832" s="38"/>
+      <c r="C832" s="38">
+        <v>4</v>
+      </c>
       <c r="D832" s="38"/>
-    </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A833" s="78"/>
+      <c r="E832" s="89"/>
+    </row>
+    <row r="833" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A833" s="81" t="s">
+        <v>1495</v>
+      </c>
       <c r="B833" s="70">
-        <v>44698</v>
-      </c>
-      <c r="C833" s="38"/>
+        <v>44697</v>
+      </c>
+      <c r="C833" s="38">
+        <v>2</v>
+      </c>
       <c r="D833" s="38"/>
-    </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A834" s="78"/>
+      <c r="E833" s="89"/>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A834" s="78" t="s">
+        <v>1504</v>
+      </c>
       <c r="B834" s="70">
         <v>44698</v>
       </c>
-      <c r="C834" s="38"/>
+      <c r="C834" s="38">
+        <v>2</v>
+      </c>
       <c r="D834" s="38"/>
-    </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A835" s="78"/>
+      <c r="E834" s="89"/>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A835" s="78" t="s">
+        <v>1505</v>
+      </c>
       <c r="B835" s="70">
         <v>44698</v>
       </c>
       <c r="C835" s="38"/>
       <c r="D835" s="38"/>
-    </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E835" s="89"/>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="78"/>
       <c r="B836" s="70">
-        <v>44699</v>
+        <v>44698</v>
       </c>
       <c r="C836" s="38"/>
       <c r="D836" s="38"/>
-    </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E836" s="89"/>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="78"/>
       <c r="B837" s="70">
         <v>44699</v>
       </c>
       <c r="C837" s="38"/>
       <c r="D837" s="38"/>
-    </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E837" s="89"/>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="78"/>
       <c r="B838" s="70">
         <v>44699</v>
       </c>
       <c r="C838" s="38"/>
       <c r="D838" s="38"/>
-    </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E838" s="89"/>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="78"/>
       <c r="B839" s="70">
-        <v>44700</v>
+        <v>44699</v>
       </c>
       <c r="C839" s="38"/>
       <c r="D839" s="38"/>
-    </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E839" s="89"/>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="78"/>
       <c r="B840" s="70">
         <v>44700</v>
@@ -18366,7 +18586,7 @@
       <c r="C840" s="38"/>
       <c r="D840" s="38"/>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="78"/>
       <c r="B841" s="70">
         <v>44700</v>
@@ -18374,15 +18594,15 @@
       <c r="C841" s="38"/>
       <c r="D841" s="38"/>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="78"/>
       <c r="B842" s="70">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C842" s="38"/>
       <c r="D842" s="38"/>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="78"/>
       <c r="B843" s="70">
         <v>44701</v>
@@ -18390,7 +18610,7 @@
       <c r="C843" s="38"/>
       <c r="D843" s="38"/>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="78"/>
       <c r="B844" s="70">
         <v>44701</v>
@@ -18398,15 +18618,15 @@
       <c r="C844" s="38"/>
       <c r="D844" s="38"/>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="78"/>
       <c r="B845" s="70">
-        <v>44704</v>
+        <v>44701</v>
       </c>
       <c r="C845" s="38"/>
       <c r="D845" s="38"/>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="78"/>
       <c r="B846" s="70">
         <v>44704</v>
@@ -18414,7 +18634,7 @@
       <c r="C846" s="38"/>
       <c r="D846" s="38"/>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="78"/>
       <c r="B847" s="70">
         <v>44704</v>
@@ -18422,10 +18642,10 @@
       <c r="C847" s="38"/>
       <c r="D847" s="38"/>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="78"/>
       <c r="B848" s="70">
-        <v>44705</v>
+        <v>44704</v>
       </c>
       <c r="C848" s="38"/>
       <c r="D848" s="38"/>
@@ -18449,7 +18669,7 @@
     <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851" s="78"/>
       <c r="B851" s="70">
-        <v>44706</v>
+        <v>44705</v>
       </c>
       <c r="C851" s="38"/>
       <c r="D851" s="38"/>
@@ -18473,7 +18693,7 @@
     <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854" s="78"/>
       <c r="B854" s="70">
-        <v>44707</v>
+        <v>44706</v>
       </c>
       <c r="C854" s="38"/>
       <c r="D854" s="38"/>
@@ -18497,7 +18717,7 @@
     <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857" s="78"/>
       <c r="B857" s="70">
-        <v>44708</v>
+        <v>44707</v>
       </c>
       <c r="C857" s="38"/>
       <c r="D857" s="38"/>
@@ -18521,7 +18741,7 @@
     <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860" s="78"/>
       <c r="B860" s="70">
-        <v>44709</v>
+        <v>44708</v>
       </c>
       <c r="C860" s="38"/>
       <c r="D860" s="38"/>
@@ -18545,7 +18765,7 @@
     <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" s="78"/>
       <c r="B863" s="70">
-        <v>44711</v>
+        <v>44709</v>
       </c>
       <c r="C863" s="38"/>
       <c r="D863" s="38"/>
@@ -18569,7 +18789,7 @@
     <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866" s="78"/>
       <c r="B866" s="70">
-        <v>44712</v>
+        <v>44711</v>
       </c>
       <c r="C866" s="38"/>
       <c r="D866" s="38"/>
@@ -18589,6 +18809,14 @@
       </c>
       <c r="C868" s="38"/>
       <c r="D868" s="38"/>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A869" s="78"/>
+      <c r="B869" s="70">
+        <v>44712</v>
+      </c>
+      <c r="C869" s="38"/>
+      <c r="D869" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -26905,6 +27133,65 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC5A0676C32FE54491A031539416AFA5" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d8cae8b45ca7a8c260538af4b70af00">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ce702dbc-854a-42dd-af67-dde56e8239cb" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97946c07194fa388b3b45b7b41104f08" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -27101,65 +27388,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6FB9C62-82B0-4A66-98D1-4D5A122636B2}">
   <ds:schemaRefs>
@@ -27179,6 +27407,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5E8B53-4D6B-4289-9AE5-BAE92A53F138}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EA5D6CC-E012-4906-853F-E1545189C3A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17EE96B7-FCEC-4119-83FC-239E149D1BF7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27196,20 +27440,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EA5D6CC-E012-4906-853F-E1545189C3A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5E8B53-4D6B-4289-9AE5-BAE92A53F138}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ChetuGlobalATS-INTL_ResourceUtilization.xlsx
+++ b/ChetuGlobalATS-INTL_ResourceUtilization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Shubham" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="1506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="1529">
   <si>
     <t>Task Name</t>
   </si>
@@ -4866,21 +4866,6 @@
   </si>
   <si>
     <t>created stored procedure to send data to above API</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>May</t>
   </si>
   <si>
     <t>Worked on the Report section in AutoFollowUp to display reports of individual activities and thread along with their status</t>
@@ -5038,12 +5023,251 @@
   <si>
     <t>Deployed modifications in Employee Details on server</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Worked on to modify </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DTOGetCandidateInfo , DTOCreateOfferLetter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> models and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CreateLetter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> API to bind bond period dynamically in Offer letter under </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Training and Commitment Duration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>heading.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Worked on to modify stored procedure Usp_InsertOfferLetterDetail to store BondPeriod in database.</t>
+  </si>
+  <si>
+    <t>Worked on to deploy changes in Offer Letter Form on QA environment.</t>
+  </si>
+  <si>
+    <t>Worked on to implement a dropdown on OfferLetter form that contains notice period in months-12,18,24,30,36</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Worked on to add new field </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BondPeriod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in OfferLetterDetail table.</t>
+    </r>
+  </si>
+  <si>
+    <t>Worked on to bind the dropdown values to the model in code-behind page and send it to the new field BondPeriod in OfferLetterDetail table.</t>
+  </si>
+  <si>
+    <t> Worked on to resolve the issue as provided by lovelys@chetu.com</t>
+  </si>
+  <si>
+    <t> Worked on to resolve the issue as provided by pragatig@chetu.com</t>
+  </si>
+  <si>
+    <t>Worked on to optimize the Console application that sends emails of AutoFollowUp recipient list, to ensure everyone receives the mail.</t>
+  </si>
+  <si>
+    <t>Worked on to resolve the issue as provided by pragatig@chetu.com, amitm2@chetu.com</t>
+  </si>
+  <si>
+    <t>Worked on to resolve the issue as provided by QA for AutoFollowUp module. Modified console application , added logger to find error while sending email. Also implemented deep level logger in AutoSync to trace error point.</t>
+  </si>
+  <si>
+    <t>Worked on to resolve the issue as provided by tarung@chetu.com, shashiy@chetu.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Worked on to resolve the issue as provided by QA for AutoFollowUp module. Modified whole setup by implementing logger and for tracing function calls in autosync functionality.</t>
+  </si>
+  <si>
+    <t> Worked on to provide delay in the Console application that sends email. This delay is required to send all the mails properly . Also the Task Scheduler to call this application has been increased from 1 minute to four minute to properly fetch mail details and send it to recipients.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Worked on to resolve the issue as provided by QA for AutoFollowUp module. Modified  stored procedure </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[Usp_LogActivityTask_OutlookPlugin] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>to update status correctly.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on to resolve the issue as provided by – anupc@chetu.com. </t>
+  </si>
+  <si>
+    <t>Worked on to resolve the issue as provided by QA for AutoFollowUp module.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Worked on to resolve the issue and provided new build to IT team after resolving discrepancy in Offer Letter’s              “ Training and Commitment Duration” clause as required by uddeshyas@chetu.com. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on to resolve the issue as provided by – pragatig@chetu.com </t>
+  </si>
+  <si>
+    <t>20 &amp;21 June</t>
+  </si>
+  <si>
+    <t>Worked on to resolve the issue as provided by QA in Offer module.</t>
+  </si>
+  <si>
+    <t>Worked on to deploy changes in Offer Letter Form on Production environment.</t>
+  </si>
+  <si>
+    <t>Worked on to resolve the issue as provided by amitm2@chetu.com ,sukhpreetp@chetu.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Worked on to resolve the issue as provided by amitm2@chetu.com</t>
+  </si>
+  <si>
+    <t>Worked on to find CBT result issue on ATS portal. The API responsible for it resides in seating.chetu.com and needs to be tested on production to find the real cause. On local machine APIs are working fine.</t>
+  </si>
+  <si>
+    <t>Worked on to resolve the issue as provided by QA for Auto Follow Up. Also tested the AutofollowUp and AutoSync functionality on two different machines. The functionality is working fine as expected.</t>
+  </si>
+  <si>
+    <t>Worked on to test the API that sends data from hiring.chetu.com to ATS application to update test status.</t>
+  </si>
+  <si>
+    <t>Worked on to resolve the issue as provided by- pragatig@chetu.com, sumitt@chetu.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5224,6 +5448,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.5"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF2B91AF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9.5"/>
       <color rgb="FFA31515"/>
       <name val="Consolas"/>
@@ -5434,7 +5684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5643,18 +5893,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="21" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5669,6 +5907,31 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="23" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9858,11 +10121,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F869"/>
+  <dimension ref="A1:F917"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A827" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A835" sqref="A835"/>
+      <pane ySplit="1" topLeftCell="A891" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A900" sqref="A900"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15611,20 +15874,20 @@
       </c>
     </row>
     <row r="536" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A536" s="99" t="s">
+      <c r="A536" s="111" t="s">
         <v>1334</v>
       </c>
-      <c r="B536" s="99"/>
-      <c r="C536" s="99"/>
-      <c r="D536" s="99"/>
+      <c r="B536" s="111"/>
+      <c r="C536" s="111"/>
+      <c r="D536" s="111"/>
     </row>
     <row r="537" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A537" s="96" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B537" s="97"/>
-      <c r="C537" s="97"/>
-      <c r="D537" s="98"/>
+      <c r="A537" s="108">
+        <v>44562</v>
+      </c>
+      <c r="B537" s="109"/>
+      <c r="C537" s="109"/>
+      <c r="D537" s="110"/>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="77" t="s">
@@ -16165,12 +16428,12 @@
       <c r="D602" s="38"/>
     </row>
     <row r="603" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A603" s="96" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B603" s="97"/>
-      <c r="C603" s="97"/>
-      <c r="D603" s="98"/>
+      <c r="A603" s="108">
+        <v>44593</v>
+      </c>
+      <c r="B603" s="109"/>
+      <c r="C603" s="109"/>
+      <c r="D603" s="110"/>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="77" t="s">
@@ -16759,12 +17022,12 @@
       <c r="D662" s="38"/>
     </row>
     <row r="663" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A663" s="96" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B663" s="97"/>
-      <c r="C663" s="97"/>
-      <c r="D663" s="98"/>
+      <c r="A663" s="108">
+        <v>44621</v>
+      </c>
+      <c r="B663" s="109"/>
+      <c r="C663" s="109"/>
+      <c r="D663" s="110"/>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="77" t="s">
@@ -17387,12 +17650,12 @@
       <c r="D728" s="38"/>
     </row>
     <row r="729" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A729" s="96" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B729" s="97"/>
-      <c r="C729" s="97"/>
-      <c r="D729" s="98"/>
+      <c r="A729" s="108">
+        <v>44652</v>
+      </c>
+      <c r="B729" s="109"/>
+      <c r="C729" s="109"/>
+      <c r="D729" s="110"/>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" s="77"/>
@@ -17560,7 +17823,7 @@
     </row>
     <row r="750" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A750" s="80" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="B750" s="72">
         <v>44663</v>
@@ -17572,7 +17835,7 @@
     </row>
     <row r="751" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A751" s="80" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="B751" s="72">
         <v>44663</v>
@@ -18110,12 +18373,12 @@
       <c r="D797" s="38"/>
     </row>
     <row r="798" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A798" s="96" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B798" s="97"/>
-      <c r="C798" s="97"/>
-      <c r="D798" s="98"/>
+      <c r="A798" s="108">
+        <v>44682</v>
+      </c>
+      <c r="B798" s="109"/>
+      <c r="C798" s="109"/>
+      <c r="D798" s="110"/>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" s="78"/>
@@ -18191,7 +18454,7 @@
     </row>
     <row r="808" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A808" s="79" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="B808" s="72">
         <v>44686</v>
@@ -18202,8 +18465,8 @@
       <c r="D808" s="75"/>
     </row>
     <row r="809" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A809" s="107" t="s">
-        <v>1503</v>
+      <c r="A809" s="103" t="s">
+        <v>1498</v>
       </c>
       <c r="B809" s="72">
         <v>44686</v>
@@ -18215,7 +18478,7 @@
     </row>
     <row r="810" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A810" s="80" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="B810" s="72">
         <v>44686</v>
@@ -18227,7 +18490,7 @@
     </row>
     <row r="811" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A811" s="91" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="B811" s="70">
         <v>44687</v>
@@ -18239,7 +18502,7 @@
     </row>
     <row r="812" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A812" s="91" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="B812" s="70">
         <v>44687</v>
@@ -18251,7 +18514,7 @@
     </row>
     <row r="813" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A813" s="81" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="B813" s="70">
         <v>44687</v>
@@ -18262,18 +18525,18 @@
       <c r="D813" s="38"/>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A814" s="103"/>
-      <c r="B814" s="104">
+      <c r="A814" s="99"/>
+      <c r="B814" s="100">
         <v>44690</v>
       </c>
-      <c r="C814" s="106" t="s">
+      <c r="C814" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D814" s="105"/>
+      <c r="D814" s="101"/>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" s="77" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="B815" s="72">
         <v>44691</v>
@@ -18285,7 +18548,7 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816" s="77" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="B816" s="72">
         <v>44691</v>
@@ -18297,7 +18560,7 @@
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="94" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="B817" s="72">
         <v>44691</v>
@@ -18309,7 +18572,7 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="78" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="B818" s="70">
         <v>44692</v>
@@ -18321,7 +18584,7 @@
     </row>
     <row r="819" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A819" s="81" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="B819" s="70">
         <v>44692</v>
@@ -18333,7 +18596,7 @@
     </row>
     <row r="820" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A820" s="81" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="B820" s="70">
         <v>44692</v>
@@ -18345,7 +18608,7 @@
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="77" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="B821" s="72">
         <v>44693</v>
@@ -18358,7 +18621,7 @@
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="77" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="B822" s="72">
         <v>44693</v>
@@ -18370,8 +18633,8 @@
       <c r="E822" s="89"/>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A823" s="102" t="s">
-        <v>1487</v>
+      <c r="A823" s="98" t="s">
+        <v>1482</v>
       </c>
       <c r="B823" s="83">
         <v>44693</v>
@@ -18380,13 +18643,13 @@
         <v>3</v>
       </c>
       <c r="D823" s="84" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="E823" s="95"/>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="78" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="B824" s="70">
         <v>44694</v>
@@ -18395,13 +18658,13 @@
         <v>0.5</v>
       </c>
       <c r="D824" s="38" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
       <c r="E824" s="89"/>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="78" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="B825" s="70">
         <v>44694</v>
@@ -18414,7 +18677,7 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="78" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="B826" s="70">
         <v>44694</v>
@@ -18427,7 +18690,7 @@
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="38" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="B827" s="70">
         <v>44694</v>
@@ -18440,46 +18703,46 @@
     </row>
     <row r="828" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A828" s="76" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B828" s="100">
+        <v>1491</v>
+      </c>
+      <c r="B828" s="96">
         <v>44695</v>
       </c>
-      <c r="C828" s="101">
+      <c r="C828" s="97">
         <v>4</v>
       </c>
-      <c r="D828" s="101"/>
+      <c r="D828" s="97"/>
       <c r="E828" s="89"/>
     </row>
     <row r="829" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A829" s="80" t="s">
-        <v>1495</v>
-      </c>
-      <c r="B829" s="100">
+        <v>1490</v>
+      </c>
+      <c r="B829" s="96">
         <v>44695</v>
       </c>
-      <c r="C829" s="101">
-        <v>2</v>
-      </c>
-      <c r="D829" s="101"/>
+      <c r="C829" s="97">
+        <v>2</v>
+      </c>
+      <c r="D829" s="97"/>
       <c r="E829" s="89"/>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A830" s="101" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B830" s="100">
+      <c r="A830" s="97" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B830" s="96">
         <v>44695</v>
       </c>
-      <c r="C830" s="101">
-        <v>2</v>
-      </c>
-      <c r="D830" s="101"/>
+      <c r="C830" s="97">
+        <v>2</v>
+      </c>
+      <c r="D830" s="97"/>
       <c r="E830" s="89"/>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="78" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="B831" s="70">
         <v>44697</v>
@@ -18488,13 +18751,13 @@
         <v>2</v>
       </c>
       <c r="D831" s="38" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="E831" s="89"/>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="38" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="B832" s="70">
         <v>44697</v>
@@ -18507,7 +18770,7 @@
     </row>
     <row r="833" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A833" s="81" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="B833" s="70">
         <v>44697</v>
@@ -18520,7 +18783,7 @@
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="78" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="B834" s="70">
         <v>44698</v>
@@ -18533,7 +18796,7 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="78" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="B835" s="70">
         <v>44698</v>
@@ -18818,8 +19081,513 @@
       <c r="C869" s="38"/>
       <c r="D869" s="38"/>
     </row>
+    <row r="870" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A870" s="108">
+        <v>44713</v>
+      </c>
+      <c r="B870" s="109"/>
+      <c r="C870" s="109"/>
+      <c r="D870" s="110"/>
+    </row>
+    <row r="871" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A871" s="107" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B871" s="72">
+        <v>44713</v>
+      </c>
+      <c r="C871" s="75">
+        <v>6</v>
+      </c>
+      <c r="D871" s="75"/>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A872" s="106" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B872" s="72">
+        <v>44713</v>
+      </c>
+      <c r="C872" s="75">
+        <v>2</v>
+      </c>
+      <c r="D872" s="75"/>
+    </row>
+    <row r="873" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A873" s="104" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B873" s="70">
+        <v>44714</v>
+      </c>
+      <c r="C873" s="38">
+        <v>2</v>
+      </c>
+      <c r="D873" s="38"/>
+    </row>
+    <row r="874" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A874" s="105" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B874" s="70">
+        <v>44714</v>
+      </c>
+      <c r="C874" s="38">
+        <v>3</v>
+      </c>
+      <c r="D874" s="38"/>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A875" s="105" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B875" s="70">
+        <v>44714</v>
+      </c>
+      <c r="C875" s="38">
+        <v>3</v>
+      </c>
+      <c r="D875" s="38"/>
+    </row>
+    <row r="876" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A876" s="106" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B876" s="72">
+        <v>44715</v>
+      </c>
+      <c r="C876" s="75">
+        <v>4</v>
+      </c>
+      <c r="D876" s="75"/>
+    </row>
+    <row r="877" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A877" s="76" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B877" s="72">
+        <v>44715</v>
+      </c>
+      <c r="C877" s="75">
+        <v>4</v>
+      </c>
+      <c r="D877" s="75"/>
+    </row>
+    <row r="878" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A878" s="78" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B878" s="70">
+        <v>44718</v>
+      </c>
+      <c r="C878" s="38">
+        <v>6</v>
+      </c>
+      <c r="D878" s="38"/>
+    </row>
+    <row r="879" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A879" s="78" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B879" s="70">
+        <v>44718</v>
+      </c>
+      <c r="C879" s="38">
+        <v>2</v>
+      </c>
+      <c r="D879" s="38"/>
+    </row>
+    <row r="880" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A880" s="80" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B880" s="72">
+        <v>44719</v>
+      </c>
+      <c r="C880" s="75">
+        <v>6</v>
+      </c>
+      <c r="D880" s="75"/>
+    </row>
+    <row r="881" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A881" s="80" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B881" s="72">
+        <v>44719</v>
+      </c>
+      <c r="C881" s="75">
+        <v>2</v>
+      </c>
+      <c r="D881" s="75"/>
+    </row>
+    <row r="882" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A882" s="81" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B882" s="70">
+        <v>44720</v>
+      </c>
+      <c r="C882" s="38">
+        <v>6</v>
+      </c>
+      <c r="D882" s="38"/>
+    </row>
+    <row r="883" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A883" s="81" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B883" s="70">
+        <v>44720</v>
+      </c>
+      <c r="C883" s="38">
+        <v>2</v>
+      </c>
+      <c r="D883" s="38"/>
+    </row>
+    <row r="884" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A884" s="80" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B884" s="72">
+        <v>44721</v>
+      </c>
+      <c r="C884" s="75">
+        <v>5</v>
+      </c>
+      <c r="D884" s="75"/>
+    </row>
+    <row r="885" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A885" s="80" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B885" s="72">
+        <v>44721</v>
+      </c>
+      <c r="C885" s="75">
+        <v>3</v>
+      </c>
+      <c r="D885" s="75"/>
+    </row>
+    <row r="886" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A886" s="81" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B886" s="70">
+        <v>44722</v>
+      </c>
+      <c r="C886" s="38">
+        <v>2</v>
+      </c>
+      <c r="D886" s="38"/>
+    </row>
+    <row r="887" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A887" s="81" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B887" s="70">
+        <v>44722</v>
+      </c>
+      <c r="C887" s="38">
+        <v>2</v>
+      </c>
+      <c r="D887" s="38"/>
+    </row>
+    <row r="888" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A888" s="81" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B888" s="70">
+        <v>44722</v>
+      </c>
+      <c r="C888" s="38">
+        <v>4</v>
+      </c>
+      <c r="D888" s="38"/>
+    </row>
+    <row r="889" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A889" s="80" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B889" s="72">
+        <v>44723</v>
+      </c>
+      <c r="C889" s="75">
+        <v>3</v>
+      </c>
+      <c r="D889" s="75"/>
+    </row>
+    <row r="890" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A890" s="80" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B890" s="72">
+        <v>44723</v>
+      </c>
+      <c r="C890" s="75">
+        <v>2</v>
+      </c>
+      <c r="D890" s="75"/>
+    </row>
+    <row r="891" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A891" s="80" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B891" s="72">
+        <v>44723</v>
+      </c>
+      <c r="C891" s="75">
+        <v>3</v>
+      </c>
+      <c r="D891" s="75"/>
+    </row>
+    <row r="892" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A892" s="81" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B892" s="70">
+        <v>44725</v>
+      </c>
+      <c r="C892" s="38"/>
+      <c r="D892" s="38"/>
+    </row>
+    <row r="893" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A893" s="104" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B893" s="70">
+        <v>44725</v>
+      </c>
+      <c r="C893" s="38"/>
+      <c r="D893" s="38"/>
+    </row>
+    <row r="894" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A894" s="81" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B894" s="70">
+        <v>44725</v>
+      </c>
+      <c r="C894" s="38"/>
+      <c r="D894" s="38"/>
+    </row>
+    <row r="895" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A895" s="80" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B895" s="72">
+        <v>44726</v>
+      </c>
+      <c r="C895" s="75">
+        <v>3</v>
+      </c>
+      <c r="D895" s="75"/>
+    </row>
+    <row r="896" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A896" s="107" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B896" s="72">
+        <v>44726</v>
+      </c>
+      <c r="C896" s="75">
+        <v>2</v>
+      </c>
+      <c r="D896" s="75"/>
+    </row>
+    <row r="897" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A897" s="80" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B897" s="72">
+        <v>44726</v>
+      </c>
+      <c r="C897" s="75">
+        <v>3</v>
+      </c>
+      <c r="D897" s="75"/>
+    </row>
+    <row r="898" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A898" s="81" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B898" s="70">
+        <v>44727</v>
+      </c>
+      <c r="C898" s="38">
+        <v>4</v>
+      </c>
+      <c r="D898" s="38"/>
+    </row>
+    <row r="899" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A899" s="81" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B899" s="70">
+        <v>44727</v>
+      </c>
+      <c r="C899" s="38">
+        <v>4</v>
+      </c>
+      <c r="D899" s="38"/>
+    </row>
+    <row r="900" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A900" s="80" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B900" s="72">
+        <v>44728</v>
+      </c>
+      <c r="C900" s="75">
+        <v>3</v>
+      </c>
+      <c r="D900" s="75"/>
+    </row>
+    <row r="901" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A901" s="80" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B901" s="72">
+        <v>44728</v>
+      </c>
+      <c r="C901" s="75">
+        <v>5</v>
+      </c>
+      <c r="D901" s="75"/>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A902" s="78"/>
+      <c r="B902" s="70">
+        <v>44729</v>
+      </c>
+      <c r="C902" s="38"/>
+      <c r="D902" s="38"/>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A903" s="78"/>
+      <c r="B903" s="70">
+        <v>44729</v>
+      </c>
+      <c r="C903" s="38"/>
+      <c r="D903" s="38"/>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A904" s="78"/>
+      <c r="B904" s="70">
+        <v>44729</v>
+      </c>
+      <c r="C904" s="38"/>
+      <c r="D904" s="38"/>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A905" s="78"/>
+      <c r="B905" s="112" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C905" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="D905" s="38"/>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A906" s="77"/>
+      <c r="B906" s="72">
+        <v>44734</v>
+      </c>
+      <c r="C906" s="75"/>
+      <c r="D906" s="75"/>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A907" s="77"/>
+      <c r="B907" s="72">
+        <v>44734</v>
+      </c>
+      <c r="C907" s="75"/>
+      <c r="D907" s="75"/>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A908" s="77"/>
+      <c r="B908" s="72">
+        <v>44734</v>
+      </c>
+      <c r="C908" s="75"/>
+      <c r="D908" s="75"/>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A909" s="78"/>
+      <c r="B909" s="70">
+        <v>44735</v>
+      </c>
+      <c r="C909" s="38"/>
+      <c r="D909" s="38"/>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A910" s="78"/>
+      <c r="B910" s="70">
+        <v>44735</v>
+      </c>
+      <c r="C910" s="38"/>
+      <c r="D910" s="38"/>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A911" s="78"/>
+      <c r="B911" s="70">
+        <v>44735</v>
+      </c>
+      <c r="C911" s="38"/>
+      <c r="D911" s="38"/>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A912" s="77"/>
+      <c r="B912" s="72">
+        <v>44736</v>
+      </c>
+      <c r="C912" s="75"/>
+      <c r="D912" s="75"/>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A913" s="77"/>
+      <c r="B913" s="72">
+        <v>44736</v>
+      </c>
+      <c r="C913" s="75"/>
+      <c r="D913" s="75"/>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A914" s="77"/>
+      <c r="B914" s="72">
+        <v>44736</v>
+      </c>
+      <c r="C914" s="75"/>
+      <c r="D914" s="75"/>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A915" s="78"/>
+      <c r="B915" s="70">
+        <v>44737</v>
+      </c>
+      <c r="C915" s="38"/>
+      <c r="D915" s="38"/>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A916" s="78"/>
+      <c r="B916" s="70">
+        <v>44737</v>
+      </c>
+      <c r="C916" s="38"/>
+      <c r="D916" s="38"/>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A917" s="78"/>
+      <c r="B917" s="70">
+        <v>44737</v>
+      </c>
+      <c r="C917" s="38"/>
+      <c r="D917" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A870:D870"/>
     <mergeCell ref="A663:D663"/>
     <mergeCell ref="A729:D729"/>
     <mergeCell ref="A798:D798"/>
@@ -18829,9 +19597,16 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A776" r:id="rId1" display="mailto:nikkitas@chetu.com"/>
+    <hyperlink ref="A885" r:id="rId2" display="mailto:lovelys@chetu.com"/>
+    <hyperlink ref="A883" r:id="rId3" display="mailto:pragatig@chetu.com"/>
+    <hyperlink ref="A874" r:id="rId4" display="mailto:uddeshyas@chetu.com"/>
+    <hyperlink ref="A875" r:id="rId5" display="mailto:anupc@chetu.com"/>
+    <hyperlink ref="A872" r:id="rId6" display="mailto:pragatig@chetu.com"/>
+    <hyperlink ref="A897" r:id="rId7" display="mailto:amitm2@chetu.com"/>
+    <hyperlink ref="A894" r:id="rId8" display="mailto:amitm2@chetu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -27115,33 +27890,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <EmailTo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailHeaders xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <EmailSender xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailFrom xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailSubject xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailCc xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="ce702dbc-854a-42dd-af67-dde56e8239cb">DF6JW355AR5D-25420-2</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="ce702dbc-854a-42dd-af67-dde56e8239cb">
-      <Url>http://backbone:9090/Customer-Projects/ChetuWebsite-INTL/_layouts/DocIdRedir.aspx?ID=DF6JW355AR5D-25420-2</Url>
-      <Description>DF6JW355AR5D-25420-2</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -27191,7 +27939,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC5A0676C32FE54491A031539416AFA5" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d8cae8b45ca7a8c260538af4b70af00">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ce702dbc-854a-42dd-af67-dde56e8239cb" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97946c07194fa388b3b45b7b41104f08" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -27388,7 +28136,62 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <EmailTo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailHeaders xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <EmailSender xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailFrom xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailSubject xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailCc xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="ce702dbc-854a-42dd-af67-dde56e8239cb">DF6JW355AR5D-25420-2</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="ce702dbc-854a-42dd-af67-dde56e8239cb">
+      <Url>http://backbone:9090/Customer-Projects/ChetuWebsite-INTL/_layouts/DocIdRedir.aspx?ID=DF6JW355AR5D-25420-2</Url>
+      <Description>DF6JW355AR5D-25420-2</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EA5D6CC-E012-4906-853F-E1545189C3A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17EE96B7-FCEC-4119-83FC-239E149D1BF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="ce702dbc-854a-42dd-af67-dde56e8239cb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6FB9C62-82B0-4A66-98D1-4D5A122636B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -27406,38 +28209,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5E8B53-4D6B-4289-9AE5-BAE92A53F138}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EA5D6CC-E012-4906-853F-E1545189C3A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17EE96B7-FCEC-4119-83FC-239E149D1BF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="ce702dbc-854a-42dd-af67-dde56e8239cb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>